--- a/Destalle de Juegos.xlsx
+++ b/Destalle de Juegos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Juegos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\march\Documents\GitHub\Juegos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AE270D-F7F7-44EA-882A-0D23FE96A0F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDAF3BB-E467-4BE2-BF1F-1795EC2E843F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7635" yWindow="1965" windowWidth="16620" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="930" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PSX" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="PS3" sheetId="3" r:id="rId4"/>
     <sheet name="PS4" sheetId="7" r:id="rId5"/>
     <sheet name="PC" sheetId="5" r:id="rId6"/>
-    <sheet name="Help" sheetId="6" r:id="rId7"/>
+    <sheet name="PSVita" sheetId="8" r:id="rId7"/>
+    <sheet name="Help" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PS2'!$A$1:$A$291</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5406" uniqueCount="2072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5415" uniqueCount="2073">
   <si>
     <t>ID</t>
   </si>
@@ -6264,6 +6265,9 @@
   </si>
   <si>
     <t>v PATCH</t>
+  </si>
+  <si>
+    <t>Ports</t>
   </si>
 </sst>
 </file>
@@ -6443,7 +6447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -6463,41 +6467,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -6781,7 +6770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M143"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -6806,7 +6795,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -7759,7 +7748,7 @@
       <c r="A43" s="7" t="s">
         <v>1267</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="7" t="s">
         <v>1268</v>
       </c>
       <c r="C43" s="8" t="s">
@@ -8045,7 +8034,7 @@
       <c r="C57" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="D57" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E57" s="7">
@@ -8068,7 +8057,7 @@
       <c r="C58" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="7" t="s">
         <v>1438</v>
       </c>
       <c r="E58" s="7">
@@ -8091,7 +8080,7 @@
       <c r="C59" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="7" t="s">
         <v>1438</v>
       </c>
       <c r="E59" s="7">
@@ -8367,7 +8356,7 @@
       <c r="C71" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="D71" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E71" s="7">
@@ -8413,7 +8402,7 @@
       <c r="C73" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="26" t="s">
+      <c r="D73" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E73" s="7">
@@ -8459,7 +8448,7 @@
       <c r="C75" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D75" s="26" t="s">
+      <c r="D75" s="7" t="s">
         <v>598</v>
       </c>
       <c r="E75" s="7">
@@ -8482,7 +8471,7 @@
       <c r="C76" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D76" s="26" t="s">
+      <c r="D76" s="7" t="s">
         <v>598</v>
       </c>
       <c r="E76" s="7">
@@ -8505,10 +8494,10 @@
       <c r="C77" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="31" t="s">
-        <v>595</v>
-      </c>
-      <c r="E77" s="31">
+      <c r="D77" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="E77" s="21">
         <v>2</v>
       </c>
       <c r="F77" s="7">
@@ -8528,7 +8517,7 @@
       <c r="C78" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="31" t="s">
+      <c r="D78" s="21" t="s">
         <v>595</v>
       </c>
       <c r="E78" s="7">
@@ -8551,7 +8540,7 @@
       <c r="C79" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E79" s="7">
@@ -8574,7 +8563,7 @@
       <c r="C80" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="26" t="s">
+      <c r="D80" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E80" s="7">
@@ -8597,7 +8586,7 @@
       <c r="C81" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="26" t="s">
+      <c r="D81" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E81" s="7">
@@ -8620,7 +8609,7 @@
       <c r="C82" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="26" t="s">
+      <c r="D82" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E82" s="7">
@@ -8643,7 +8632,7 @@
       <c r="C83" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E83" s="7">
@@ -8666,7 +8655,7 @@
       <c r="C84" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="26" t="s">
+      <c r="D84" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E84" s="7">
@@ -8689,7 +8678,7 @@
       <c r="C85" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="26" t="s">
+      <c r="D85" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E85" s="7">
@@ -8712,7 +8701,7 @@
       <c r="C86" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="26" t="s">
+      <c r="D86" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E86" s="7">
@@ -8735,7 +8724,7 @@
       <c r="C87" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="26" t="s">
+      <c r="D87" s="7" t="s">
         <v>604</v>
       </c>
       <c r="E87" s="7">
@@ -8758,7 +8747,7 @@
       <c r="C88" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="26" t="s">
+      <c r="D88" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E88" s="7">
@@ -8781,7 +8770,7 @@
       <c r="C89" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="26" t="s">
+      <c r="D89" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E89" s="7">
@@ -8804,7 +8793,7 @@
       <c r="C90" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="26" t="s">
+      <c r="D90" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E90" s="7">
@@ -8827,7 +8816,7 @@
       <c r="C91" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D91" s="26" t="s">
+      <c r="D91" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E91" s="7">
@@ -8850,7 +8839,7 @@
       <c r="C92" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D92" s="26" t="s">
+      <c r="D92" s="7" t="s">
         <v>604</v>
       </c>
       <c r="E92" s="7">
@@ -8942,7 +8931,7 @@
       <c r="C96" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D96" s="26" t="s">
+      <c r="D96" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E96" s="7">
@@ -8965,7 +8954,7 @@
       <c r="C97" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D97" s="26" t="s">
+      <c r="D97" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E97" s="7">
@@ -8988,7 +8977,7 @@
       <c r="C98" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D98" s="26" t="s">
+      <c r="D98" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E98" s="7">
@@ -9011,7 +9000,7 @@
       <c r="C99" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D99" s="26" t="s">
+      <c r="D99" s="7" t="s">
         <v>1660</v>
       </c>
       <c r="E99" s="7">
@@ -9034,7 +9023,7 @@
       <c r="C100" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="26" t="s">
+      <c r="D100" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E100" s="7">
@@ -9057,7 +9046,7 @@
       <c r="C101" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D101" s="26" t="s">
+      <c r="D101" s="7" t="s">
         <v>676</v>
       </c>
       <c r="E101" s="7">
@@ -9080,7 +9069,7 @@
       <c r="C102" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D102" s="26" t="s">
+      <c r="D102" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E102" s="7">
@@ -9195,7 +9184,7 @@
       <c r="C107" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D107" s="26" t="s">
+      <c r="D107" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E107" s="7">
@@ -9218,7 +9207,7 @@
       <c r="C108" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D108" s="26" t="s">
+      <c r="D108" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E108" s="7">
@@ -9241,7 +9230,7 @@
       <c r="C109" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D109" s="26" t="s">
+      <c r="D109" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E109" s="7">
@@ -9287,7 +9276,7 @@
       <c r="C111" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="26" t="s">
+      <c r="D111" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E111" s="7">
@@ -9333,7 +9322,7 @@
       <c r="C113" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D113" s="26" t="s">
+      <c r="D113" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E113" s="7">
@@ -9379,7 +9368,7 @@
       <c r="C115" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D115" s="26" t="s">
+      <c r="D115" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E115" s="7">
@@ -9402,7 +9391,7 @@
       <c r="C116" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="26" t="s">
+      <c r="D116" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E116" s="7">
@@ -9425,7 +9414,7 @@
       <c r="C117" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D117" s="26" t="s">
+      <c r="D117" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E117" s="7">
@@ -9448,7 +9437,7 @@
       <c r="C118" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D118" s="26" t="s">
+      <c r="D118" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E118" s="7">
@@ -9471,7 +9460,7 @@
       <c r="C119" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D119" s="26" t="s">
+      <c r="D119" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E119" s="7">
@@ -9494,7 +9483,7 @@
       <c r="C120" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D120" s="26" t="s">
+      <c r="D120" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E120" s="7">
@@ -9517,7 +9506,7 @@
       <c r="C121" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D121" s="26" t="s">
+      <c r="D121" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E121" s="7">
@@ -9540,7 +9529,7 @@
       <c r="C122" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D122" s="26" t="s">
+      <c r="D122" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E122" s="7">
@@ -9563,7 +9552,7 @@
       <c r="C123" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D123" s="26" t="s">
+      <c r="D123" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E123" s="7">
@@ -9586,7 +9575,7 @@
       <c r="C124" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D124" s="26" t="s">
+      <c r="D124" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E124" s="7">
@@ -9609,7 +9598,7 @@
       <c r="C125" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D125" s="26" t="s">
+      <c r="D125" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E125" s="7">
@@ -9632,7 +9621,7 @@
       <c r="C126" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D126" s="26" t="s">
+      <c r="D126" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E126" s="7">
@@ -9655,7 +9644,7 @@
       <c r="C127" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D127" s="26" t="s">
+      <c r="D127" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E127" s="7">
@@ -9678,7 +9667,7 @@
       <c r="C128" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D128" s="26" t="s">
+      <c r="D128" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E128" s="7">
@@ -9724,7 +9713,7 @@
       <c r="C130" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D130" s="26" t="s">
+      <c r="D130" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E130" s="7">
@@ -9747,7 +9736,7 @@
       <c r="C131" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D131" s="26" t="s">
+      <c r="D131" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E131" s="7">
@@ -9770,7 +9759,7 @@
       <c r="C132" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="26" t="s">
+      <c r="D132" s="7" t="s">
         <v>604</v>
       </c>
       <c r="E132" s="7">
@@ -9793,7 +9782,7 @@
       <c r="C133" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D133" s="26" t="s">
+      <c r="D133" s="7" t="s">
         <v>604</v>
       </c>
       <c r="E133" s="7">
@@ -9816,7 +9805,7 @@
       <c r="C134" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D134" s="26" t="s">
+      <c r="D134" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E134" s="7">
@@ -9839,7 +9828,7 @@
       <c r="C135" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D135" s="26" t="s">
+      <c r="D135" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E135" s="7">
@@ -9862,7 +9851,7 @@
       <c r="C136" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D136" s="26" t="s">
+      <c r="D136" s="7" t="s">
         <v>675</v>
       </c>
       <c r="E136" s="7">
@@ -9908,7 +9897,7 @@
       <c r="C138" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D138" s="26" t="s">
+      <c r="D138" s="7" t="s">
         <v>604</v>
       </c>
       <c r="E138" s="7">
@@ -9931,7 +9920,7 @@
       <c r="C139" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D139" s="26" t="s">
+      <c r="D139" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E139" s="7">
@@ -10000,7 +9989,7 @@
       <c r="C142" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D142" s="26" t="s">
+      <c r="D142" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E142" s="7">
@@ -10023,7 +10012,7 @@
       <c r="C143" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D143" s="26" t="s">
+      <c r="D143" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E143" s="7">
@@ -16906,7 +16895,6 @@
       <c r="G2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="18" t="s">
@@ -16915,7 +16903,7 @@
       <c r="B3" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="18" t="s">
@@ -18164,7 +18152,7 @@
       <c r="C56" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="18" t="s">
         <v>682</v>
       </c>
       <c r="E56" s="18">
@@ -18187,7 +18175,7 @@
       <c r="C57" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="18" t="s">
         <v>1072</v>
       </c>
       <c r="E57" s="18">
@@ -18319,7 +18307,7 @@
       <c r="A63" s="18" t="s">
         <v>904</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="18" t="s">
         <v>855</v>
       </c>
       <c r="C63" s="18" t="s">
@@ -19231,7 +19219,7 @@
       <c r="C102" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="21" t="s">
+      <c r="D102" s="18" t="s">
         <v>675</v>
       </c>
       <c r="E102" s="18">
@@ -19300,7 +19288,7 @@
       <c r="C105" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D105" s="23" t="s">
+      <c r="D105" s="2" t="s">
         <v>675</v>
       </c>
       <c r="E105" s="2">
@@ -19343,7 +19331,7 @@
       <c r="A107" s="18" t="s">
         <v>947</v>
       </c>
-      <c r="B107" s="21" t="s">
+      <c r="B107" s="18" t="s">
         <v>1199</v>
       </c>
       <c r="C107" s="18" t="s">
@@ -20788,7 +20776,7 @@
       <c r="F169" s="18">
         <v>92</v>
       </c>
-      <c r="G169" s="21" t="s">
+      <c r="G169" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -20811,7 +20799,7 @@
       <c r="F170" s="18">
         <v>1.2</v>
       </c>
-      <c r="G170" s="21" t="s">
+      <c r="G170" s="18" t="s">
         <v>76</v>
       </c>
     </row>
@@ -20834,7 +20822,7 @@
       <c r="F171" s="18">
         <v>1.4</v>
       </c>
-      <c r="G171" s="21" t="s">
+      <c r="G171" s="18" t="s">
         <v>76</v>
       </c>
     </row>
@@ -20857,7 +20845,7 @@
       <c r="F172" s="18">
         <v>191</v>
       </c>
-      <c r="G172" s="21" t="s">
+      <c r="G172" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -20880,7 +20868,7 @@
       <c r="F173" s="18">
         <v>1.7</v>
       </c>
-      <c r="G173" s="21" t="s">
+      <c r="G173" s="18" t="s">
         <v>76</v>
       </c>
     </row>
@@ -20903,7 +20891,7 @@
       <c r="F174" s="18">
         <v>855</v>
       </c>
-      <c r="G174" s="21" t="s">
+      <c r="G174" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -20926,7 +20914,7 @@
       <c r="F175" s="18">
         <v>323</v>
       </c>
-      <c r="G175" s="21" t="s">
+      <c r="G175" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -20949,7 +20937,7 @@
       <c r="F176" s="18">
         <v>63</v>
       </c>
-      <c r="G176" s="21" t="s">
+      <c r="G176" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -20972,7 +20960,7 @@
       <c r="F177" s="18">
         <v>21</v>
       </c>
-      <c r="G177" s="21" t="s">
+      <c r="G177" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -20995,7 +20983,7 @@
       <c r="F178" s="18">
         <v>829</v>
       </c>
-      <c r="G178" s="21" t="s">
+      <c r="G178" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -21018,7 +21006,7 @@
       <c r="F179" s="18">
         <v>1.4</v>
       </c>
-      <c r="G179" s="21" t="s">
+      <c r="G179" s="18" t="s">
         <v>76</v>
       </c>
     </row>
@@ -21041,7 +21029,7 @@
       <c r="F180" s="18">
         <v>1</v>
       </c>
-      <c r="G180" s="21" t="s">
+      <c r="G180" s="18" t="s">
         <v>76</v>
       </c>
     </row>
@@ -21064,7 +21052,7 @@
       <c r="F181" s="18">
         <v>7</v>
       </c>
-      <c r="G181" s="21" t="s">
+      <c r="G181" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -21087,7 +21075,7 @@
       <c r="F182" s="18">
         <v>6</v>
       </c>
-      <c r="G182" s="21" t="s">
+      <c r="G182" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -21110,7 +21098,7 @@
       <c r="F183" s="18">
         <v>86</v>
       </c>
-      <c r="G183" s="21" t="s">
+      <c r="G183" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -21131,7 +21119,7 @@
       <c r="F184" s="18">
         <v>669</v>
       </c>
-      <c r="G184" s="21" t="s">
+      <c r="G184" s="18" t="s">
         <v>91</v>
       </c>
       <c r="J184" t="s">
@@ -21157,7 +21145,7 @@
       <c r="F185" s="18">
         <v>952</v>
       </c>
-      <c r="G185" s="21" t="s">
+      <c r="G185" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -21180,7 +21168,7 @@
       <c r="F186" s="18">
         <v>32</v>
       </c>
-      <c r="G186" s="21" t="s">
+      <c r="G186" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -21203,7 +21191,7 @@
       <c r="F187" s="18">
         <v>1.5</v>
       </c>
-      <c r="G187" s="21" t="s">
+      <c r="G187" s="18" t="s">
         <v>76</v>
       </c>
     </row>
@@ -21226,7 +21214,7 @@
       <c r="F188" s="18">
         <v>30</v>
       </c>
-      <c r="G188" s="21" t="s">
+      <c r="G188" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -22200,8 +22188,7 @@
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="19"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -22223,10 +22210,10 @@
       <c r="F1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" t="s">
         <v>2031</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" t="s">
         <v>2032</v>
       </c>
     </row>
@@ -22258,7 +22245,7 @@
       <c r="I2" s="12" t="s">
         <v>2034</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" t="s">
         <v>186</v>
       </c>
     </row>
@@ -22289,7 +22276,7 @@
       <c r="A4" s="12" t="s">
         <v>1220</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="12" t="s">
         <v>1218</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -22878,8 +22865,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="32" customFormat="1">
-      <c r="A29" s="25" t="s">
+    <row r="29" spans="1:9" s="1" customFormat="1">
+      <c r="A29" s="19" t="s">
         <v>1750</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -23159,7 +23146,7 @@
       <c r="G40" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="I40" s="19" t="s">
+      <c r="I40" t="s">
         <v>1376</v>
       </c>
     </row>
@@ -23185,7 +23172,7 @@
       <c r="G41" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="I41" s="19" t="s">
+      <c r="I41" t="s">
         <v>1376</v>
       </c>
     </row>
@@ -24157,7 +24144,7 @@
       <c r="C84" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="30" t="s">
+      <c r="D84" s="20" t="s">
         <v>1494</v>
       </c>
       <c r="E84" s="12">
@@ -24935,7 +24922,7 @@
       <c r="C118" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D118" s="24" t="s">
+      <c r="D118" s="12" t="s">
         <v>604</v>
       </c>
       <c r="E118" s="12">
@@ -25096,7 +25083,7 @@
       <c r="C125" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D125" s="24" t="s">
+      <c r="D125" s="12" t="s">
         <v>604</v>
       </c>
       <c r="E125" s="12">
@@ -25119,7 +25106,7 @@
       <c r="C126" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D126" s="24" t="s">
+      <c r="D126" s="12" t="s">
         <v>604</v>
       </c>
       <c r="E126" s="12">
@@ -25142,7 +25129,7 @@
       <c r="C127" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D127" s="24" t="s">
+      <c r="D127" s="12" t="s">
         <v>604</v>
       </c>
       <c r="E127" s="12">
@@ -25234,7 +25221,7 @@
       <c r="C131" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D131" s="24" t="s">
+      <c r="D131" s="12" t="s">
         <v>604</v>
       </c>
       <c r="E131" s="12">
@@ -25825,7 +25812,7 @@
       <c r="G154" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H154" s="24" t="s">
+      <c r="H154" s="12" t="s">
         <v>2034</v>
       </c>
       <c r="I154" s="12" t="s">
@@ -25854,7 +25841,7 @@
       <c r="G155" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H155" s="24" t="s">
+      <c r="H155" s="12" t="s">
         <v>2034</v>
       </c>
       <c r="I155" s="12" t="s">
@@ -25862,186 +25849,186 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="20" t="s">
+      <c r="A157" t="s">
         <v>1496</v>
       </c>
-      <c r="B157" s="20" t="s">
+      <c r="B157" t="s">
         <v>1497</v>
       </c>
-      <c r="C157" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D157" s="33" t="s">
+      <c r="C157" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157" t="s">
         <v>1443</v>
       </c>
-      <c r="E157" s="20">
-        <v>1</v>
-      </c>
-      <c r="F157" s="20">
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
         <v>43.1</v>
       </c>
-      <c r="G157" s="20" t="s">
+      <c r="G157" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="20" t="s">
+      <c r="A158" t="s">
         <v>1498</v>
       </c>
-      <c r="B158" s="20" t="s">
+      <c r="B158" t="s">
         <v>1499</v>
       </c>
-      <c r="C158" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D158" s="33" t="s">
+      <c r="C158" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" t="s">
         <v>676</v>
       </c>
-      <c r="E158" s="20">
-        <v>1</v>
-      </c>
-      <c r="F158" s="20">
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
         <v>7.4</v>
       </c>
-      <c r="G158" s="20" t="s">
+      <c r="G158" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="20" t="s">
+      <c r="A159" t="s">
         <v>1500</v>
       </c>
-      <c r="B159" s="20" t="s">
+      <c r="B159" t="s">
         <v>1501</v>
       </c>
-      <c r="C159" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D159" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="E159" s="20">
-        <v>1</v>
-      </c>
-      <c r="F159" s="20">
+      <c r="C159" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" t="s">
+        <v>595</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
         <v>11.6</v>
       </c>
-      <c r="G159" s="20" t="s">
+      <c r="G159" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="20" t="s">
+      <c r="A160" t="s">
         <v>1502</v>
       </c>
-      <c r="B160" s="20" t="s">
+      <c r="B160" t="s">
         <v>1503</v>
       </c>
-      <c r="C160" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D160" s="33" t="s">
+      <c r="C160" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" t="s">
         <v>675</v>
       </c>
-      <c r="E160" s="20">
+      <c r="E160">
         <v>4</v>
       </c>
-      <c r="F160" s="20">
+      <c r="F160">
         <v>12.5</v>
       </c>
-      <c r="G160" s="20" t="s">
+      <c r="G160" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="20" t="s">
+      <c r="A161" t="s">
         <v>1504</v>
       </c>
-      <c r="B161" s="20" t="s">
+      <c r="B161" t="s">
         <v>1505</v>
       </c>
-      <c r="C161" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D161" s="33" t="s">
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" t="s">
         <v>675</v>
       </c>
-      <c r="E161" s="20">
+      <c r="E161">
         <v>4</v>
       </c>
-      <c r="F161" s="20">
+      <c r="F161">
         <v>7.3</v>
       </c>
-      <c r="G161" s="20" t="s">
+      <c r="G161" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="20" t="s">
+      <c r="A162" t="s">
         <v>1506</v>
       </c>
-      <c r="B162" s="20" t="s">
+      <c r="B162" t="s">
         <v>1507</v>
       </c>
-      <c r="C162" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" s="33" t="s">
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" t="s">
         <v>1443</v>
       </c>
-      <c r="E162" s="20">
+      <c r="E162">
         <v>4</v>
       </c>
-      <c r="F162" s="20">
+      <c r="F162">
         <v>6.8</v>
       </c>
-      <c r="G162" s="20" t="s">
+      <c r="G162" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="20" t="s">
+      <c r="A163" t="s">
         <v>1555</v>
       </c>
-      <c r="B163" s="20" t="s">
+      <c r="B163" t="s">
         <v>1556</v>
       </c>
-      <c r="C163" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="E163" s="20">
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" t="s">
+        <v>595</v>
+      </c>
+      <c r="E163">
         <v>4</v>
       </c>
-      <c r="F163" s="20">
+      <c r="F163">
         <v>11.1</v>
       </c>
-      <c r="G163" s="20" t="s">
+      <c r="G163" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="20" t="s">
+      <c r="A164" t="s">
         <v>1746</v>
       </c>
-      <c r="B164" s="20" t="s">
+      <c r="B164" t="s">
         <v>1747</v>
       </c>
-      <c r="C164" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D164" s="33" t="s">
+      <c r="C164" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" t="s">
         <v>676</v>
       </c>
-      <c r="E164" s="20">
-        <v>1</v>
-      </c>
-      <c r="F164" s="20">
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
         <v>47.4</v>
       </c>
-      <c r="G164" s="20" t="s">
+      <c r="G164" t="s">
         <v>76</v>
       </c>
     </row>
@@ -26052,19 +26039,19 @@
       <c r="B165" t="s">
         <v>1772</v>
       </c>
-      <c r="C165" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D165" s="33" t="s">
+      <c r="C165" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" t="s">
         <v>676</v>
       </c>
-      <c r="E165" s="20">
-        <v>1</v>
-      </c>
-      <c r="F165" s="20">
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
         <v>16.3</v>
       </c>
-      <c r="G165" s="20" t="s">
+      <c r="G165" t="s">
         <v>76</v>
       </c>
     </row>
@@ -26075,19 +26062,19 @@
       <c r="B166" t="s">
         <v>1497</v>
       </c>
-      <c r="C166" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D166" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="E166" s="20">
-        <v>1</v>
-      </c>
-      <c r="F166" s="20">
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" t="s">
+        <v>595</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
         <v>37.6</v>
       </c>
-      <c r="G166" s="20" t="s">
+      <c r="G166" t="s">
         <v>76</v>
       </c>
     </row>
@@ -26098,19 +26085,19 @@
       <c r="B167" t="s">
         <v>1775</v>
       </c>
-      <c r="C167" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D167" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="E167" s="20">
-        <v>1</v>
-      </c>
-      <c r="F167" s="20">
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" t="s">
+        <v>595</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
         <v>24</v>
       </c>
-      <c r="G167" s="20" t="s">
+      <c r="G167" t="s">
         <v>76</v>
       </c>
     </row>
@@ -26121,19 +26108,19 @@
       <c r="B168" t="s">
         <v>1777</v>
       </c>
-      <c r="C168" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D168" s="33" t="s">
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" t="s">
         <v>676</v>
       </c>
-      <c r="E168" s="20">
-        <v>1</v>
-      </c>
-      <c r="F168" s="20">
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
         <v>6.5</v>
       </c>
-      <c r="G168" s="20" t="s">
+      <c r="G168" t="s">
         <v>76</v>
       </c>
     </row>
@@ -26144,19 +26131,19 @@
       <c r="B169" t="s">
         <v>1988</v>
       </c>
-      <c r="C169" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D169" s="33" t="s">
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" t="s">
         <v>1438</v>
       </c>
-      <c r="E169" s="20">
+      <c r="E169">
         <v>2</v>
       </c>
       <c r="F169">
         <v>14</v>
       </c>
-      <c r="G169" s="20" t="s">
+      <c r="G169" t="s">
         <v>76</v>
       </c>
     </row>
@@ -26167,19 +26154,19 @@
       <c r="B170" t="s">
         <v>1990</v>
       </c>
-      <c r="C170" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D170" s="33" t="s">
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" t="s">
         <v>1374</v>
       </c>
-      <c r="E170" s="20">
+      <c r="E170">
         <v>2</v>
       </c>
       <c r="F170" t="s">
         <v>2020</v>
       </c>
-      <c r="G170" s="20" t="s">
+      <c r="G170" t="s">
         <v>76</v>
       </c>
     </row>
@@ -26190,19 +26177,19 @@
       <c r="B171" t="s">
         <v>1991</v>
       </c>
-      <c r="C171" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D171" s="33" t="s">
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" t="s">
         <v>675</v>
       </c>
-      <c r="E171" s="20">
+      <c r="E171">
         <v>4</v>
       </c>
       <c r="F171">
         <v>23</v>
       </c>
-      <c r="G171" s="20" t="s">
+      <c r="G171" t="s">
         <v>76</v>
       </c>
     </row>
@@ -26213,19 +26200,19 @@
       <c r="B172" t="s">
         <v>2009</v>
       </c>
-      <c r="C172" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D172" s="33" t="s">
+      <c r="C172" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" t="s">
         <v>675</v>
       </c>
-      <c r="E172" s="20">
+      <c r="E172">
         <v>1</v>
       </c>
       <c r="F172" t="s">
         <v>2010</v>
       </c>
-      <c r="G172" s="20" t="s">
+      <c r="G172" t="s">
         <v>76</v>
       </c>
     </row>
@@ -26236,19 +26223,19 @@
       <c r="B173" t="s">
         <v>2012</v>
       </c>
-      <c r="C173" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D173" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="E173" s="20">
+      <c r="C173" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" t="s">
+        <v>595</v>
+      </c>
+      <c r="E173">
         <v>4</v>
       </c>
       <c r="F173" t="s">
         <v>2013</v>
       </c>
-      <c r="G173" s="20" t="s">
+      <c r="G173" t="s">
         <v>76</v>
       </c>
     </row>
@@ -26259,19 +26246,19 @@
       <c r="B174" t="s">
         <v>1895</v>
       </c>
-      <c r="C174" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D174" s="33" t="s">
+      <c r="C174" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" t="s">
         <v>1438</v>
       </c>
-      <c r="E174" s="20">
+      <c r="E174">
         <v>1</v>
       </c>
       <c r="F174" t="s">
         <v>2014</v>
       </c>
-      <c r="G174" s="20" t="s">
+      <c r="G174" t="s">
         <v>76</v>
       </c>
     </row>
@@ -26282,19 +26269,19 @@
       <c r="B175" t="s">
         <v>1224</v>
       </c>
-      <c r="C175" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D175" s="33" t="s">
+      <c r="C175" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" t="s">
         <v>1438</v>
       </c>
-      <c r="E175" s="20">
+      <c r="E175">
         <v>1</v>
       </c>
       <c r="F175" t="s">
         <v>2016</v>
       </c>
-      <c r="G175" s="20" t="s">
+      <c r="G175" t="s">
         <v>76</v>
       </c>
     </row>
@@ -26308,7 +26295,7 @@
       <c r="F176" t="s">
         <v>2027</v>
       </c>
-      <c r="G176" s="20" t="s">
+      <c r="G176" t="s">
         <v>76</v>
       </c>
     </row>
@@ -26322,7 +26309,7 @@
       <c r="F177" t="s">
         <v>2026</v>
       </c>
-      <c r="G177" s="20" t="s">
+      <c r="G177" t="s">
         <v>76</v>
       </c>
     </row>
@@ -26337,14 +26324,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFD6704-31D9-442F-B705-7B157B6AB9D0}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="46"/>
+    <col min="9" max="9" width="11.42578125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -26354,7 +26341,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -26370,7 +26357,7 @@
       <c r="H1" s="2" t="s">
         <v>2031</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="31" t="s">
         <v>2071</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -26402,7 +26389,7 @@
       <c r="H2" t="s">
         <v>2057</v>
       </c>
-      <c r="I2" s="46">
+      <c r="I2" s="30">
         <v>1</v>
       </c>
       <c r="J2" t="s">
@@ -26434,7 +26421,7 @@
       <c r="H3" t="s">
         <v>2034</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="30">
         <v>1.01</v>
       </c>
       <c r="J3" t="s">
@@ -26466,7 +26453,7 @@
       <c r="H4" t="s">
         <v>2034</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I4" s="30">
         <v>1.1299999999999999</v>
       </c>
       <c r="J4" t="s">
@@ -26489,74 +26476,72 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31" style="27" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="27"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="45" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="I1" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" t="s">
         <v>1361</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="22">
         <v>287</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="34">
+      <c r="C2" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="22">
         <v>90</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="22" t="s">
         <v>1616</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="22" t="s">
         <v>1615</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="22">
         <v>24</v>
       </c>
-      <c r="H2" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="34">
-        <v>1</v>
-      </c>
-      <c r="J2" s="34" t="s">
+      <c r="H2" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="22">
+        <v>1</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>91</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -26564,5195 +26549,5195 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="22">
         <v>622</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="34">
+      <c r="C3" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="22">
         <v>1.2</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="22">
         <v>32</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="34">
+      <c r="H3" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="22">
         <v>2</v>
       </c>
-      <c r="J3" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" s="27" t="s">
+      <c r="J3" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" t="s">
         <v>1827</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="22">
         <v>300</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="34">
+      <c r="C4" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="22">
         <v>166</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="22" t="s">
         <v>1616</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="22" t="s">
         <v>1269</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="22">
         <v>64</v>
       </c>
-      <c r="H4" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="34">
+      <c r="H4" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="22">
         <v>2</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="22">
         <v>6.1</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="34" t="s">
+      <c r="C5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>1623</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="22" t="s">
         <v>1270</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="22">
         <v>2</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="34">
+      <c r="H5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="22">
         <v>64</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="34">
-        <v>1</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="34">
+      <c r="B6" s="22">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="22">
         <v>450</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="22" t="s">
         <v>1616</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="22" t="s">
         <v>1271</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="22">
         <v>128</v>
       </c>
-      <c r="H6" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="34">
+      <c r="H6" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="22">
         <v>16</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="22">
         <v>483</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="34">
+      <c r="C7" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="22">
         <v>450</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="22" t="s">
         <v>1616</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="22" t="s">
         <v>1271</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="22">
         <v>128</v>
       </c>
-      <c r="H7" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="34">
+      <c r="H7" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="22">
         <v>16</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="22">
         <v>3.1</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="34">
+      <c r="C8" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="22">
         <v>1.8</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="22" t="s">
         <v>1270</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="22">
         <v>256</v>
       </c>
-      <c r="H8" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="34">
+      <c r="H8" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="22">
         <v>128</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="22">
         <v>7.4</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="34">
+      <c r="C9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="22">
         <v>1.75</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="22" t="s">
         <v>1618</v>
       </c>
-      <c r="G9" s="34">
-        <v>1</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="34">
+      <c r="G9" s="22">
+        <v>1</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="22">
         <v>128</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="34">
-        <v>1</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="34">
+      <c r="B10" s="22">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="22">
         <v>3.4</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="22" t="s">
         <v>1618</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="22">
         <v>2</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="34">
+      <c r="H10" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="22">
         <v>512</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="22">
         <v>7</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="34" t="s">
+      <c r="C11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>1619</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="22" t="s">
         <v>1618</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="22">
         <v>2</v>
       </c>
-      <c r="H11" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="34">
+      <c r="H11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="22">
         <v>256</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="22">
         <v>14.2</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>1620</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="22" t="s">
         <v>1621</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="22">
         <v>2</v>
       </c>
-      <c r="H12" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="34">
+      <c r="H12" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="22">
         <v>512</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="22" t="s">
         <v>1272</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="22">
         <v>24.7</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="34" t="s">
+      <c r="C13" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>1620</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="22" t="s">
         <v>1622</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="22">
         <v>4</v>
       </c>
-      <c r="H13" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="34">
+      <c r="H13" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="22">
         <v>512</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="22" t="s">
         <v>1273</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="22">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="34">
+      <c r="C14" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="22">
         <v>3</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="22" t="s">
         <v>1621</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="22">
         <v>3</v>
       </c>
-      <c r="H14" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="34">
+      <c r="H14" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="22">
         <v>256</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="22" t="s">
         <v>1274</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="22">
         <v>314</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="34">
+      <c r="C15" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="22">
         <v>3.7</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="22" t="s">
         <v>1624</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="22">
         <v>8</v>
       </c>
-      <c r="H15" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="34">
+      <c r="H15" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="22">
         <v>4</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="22" t="s">
         <v>1275</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22">
         <v>1.5</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="22" t="s">
         <v>1753</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="22">
         <v>256</v>
       </c>
-      <c r="H16" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="34">
+      <c r="H16" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="22">
         <v>64</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="22" t="s">
         <v>1276</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="22" t="s">
         <v>1618</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="22">
         <v>512</v>
       </c>
-      <c r="H17" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="34">
+      <c r="H17" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="22">
         <v>64</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="22" t="s">
         <v>1277</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="36">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="24">
         <v>266</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="22" t="s">
         <v>1616</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="22" t="s">
         <v>1754</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="22">
         <v>64</v>
       </c>
-      <c r="H18" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="34">
+      <c r="H18" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="22">
         <v>16</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="J18" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="22" t="s">
         <v>1278</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22">
         <v>3</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="22" t="s">
         <v>1755</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="22">
         <v>512</v>
       </c>
-      <c r="H19" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="34">
-        <v>1</v>
-      </c>
-      <c r="J19" s="34" t="s">
+      <c r="H19" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="22">
+        <v>1</v>
+      </c>
+      <c r="J19" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="22" t="s">
         <v>1279</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22">
         <v>1.8</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="22" t="s">
         <v>1756</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="22">
         <v>256</v>
       </c>
-      <c r="H20" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="34">
+      <c r="H20" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="22">
         <v>128</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="J20" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="22" t="s">
         <v>1280</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="22" t="s">
         <v>1281</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="22" t="s">
         <v>1282</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="22" t="s">
         <v>1283</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="22" t="s">
         <v>1284</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="22" t="s">
         <v>1285</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="22" t="s">
         <v>1286</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22" t="s">
         <v>1816</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="22" t="s">
         <v>1287</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="22" t="s">
         <v>1288</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="22" t="s">
         <v>1289</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="22">
         <v>8</v>
       </c>
-      <c r="C30" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="34" t="s">
+      <c r="C30" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="22" t="s">
         <v>1815</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="22" t="s">
         <v>1814</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="22">
         <v>2</v>
       </c>
-      <c r="H30" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I30" s="34">
+      <c r="H30" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="22">
         <v>512</v>
       </c>
-      <c r="J30" s="34" t="s">
+      <c r="J30" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="22" t="s">
         <v>1290</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="37" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23" t="s">
         <v>1815</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="23" t="s">
         <v>1817</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="22">
         <v>4</v>
       </c>
-      <c r="H31" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="I31" s="34">
+      <c r="H31" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" s="22">
         <v>256</v>
       </c>
-      <c r="J31" s="34" t="s">
+      <c r="J31" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="22" t="s">
         <v>1291</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="37" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23" t="s">
         <v>1819</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="22" t="s">
         <v>1818</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32" s="22">
         <v>512</v>
       </c>
-      <c r="H32" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I32" s="34">
+      <c r="H32" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" s="22">
         <v>64</v>
       </c>
-      <c r="J32" s="34" t="s">
+      <c r="J32" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="22" t="s">
         <v>1828</v>
       </c>
-      <c r="B33" s="38">
+      <c r="B33" s="22">
         <v>825</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="39">
+      <c r="C33" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="25">
         <v>600</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="22" t="s">
         <v>1616</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="22" t="s">
         <v>1818</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="22">
         <v>128</v>
       </c>
-      <c r="H33" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I33" s="34">
+      <c r="H33" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="22">
         <v>32</v>
       </c>
-      <c r="J33" s="34" t="s">
+      <c r="J33" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="22" t="s">
         <v>1829</v>
       </c>
-      <c r="B34" s="38">
+      <c r="B34" s="22">
         <v>1.7</v>
       </c>
-      <c r="C34" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="38" t="s">
+      <c r="C34" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="22" t="s">
         <v>1820</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="22" t="s">
         <v>1821</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="22">
         <v>512</v>
       </c>
-      <c r="H34" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I34" s="34">
+      <c r="H34" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="22">
         <v>128</v>
       </c>
-      <c r="J34" s="34" t="s">
+      <c r="J34" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="22" t="s">
         <v>1292</v>
       </c>
-      <c r="B35" s="34">
+      <c r="B35" s="22">
         <v>5</v>
       </c>
-      <c r="C35" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="38" t="s">
+      <c r="C35" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="22" t="s">
         <v>1823</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="22" t="s">
         <v>1822</v>
       </c>
-      <c r="G35" s="34">
+      <c r="G35" s="22">
         <v>512</v>
       </c>
-      <c r="H35" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="34">
+      <c r="H35" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="22">
         <v>128</v>
       </c>
-      <c r="J35" s="34" t="s">
+      <c r="J35" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="22" t="s">
         <v>1293</v>
       </c>
-      <c r="B36" s="34">
+      <c r="B36" s="22">
         <v>13.2</v>
       </c>
-      <c r="C36" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="38" t="s">
+      <c r="C36" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="22" t="s">
         <v>1825</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="F36" s="22" t="s">
         <v>1824</v>
       </c>
-      <c r="G36" s="34">
+      <c r="G36" s="22">
         <v>6</v>
       </c>
-      <c r="H36" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I36" s="34">
+      <c r="H36" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="22">
         <v>2</v>
       </c>
-      <c r="J36" s="34" t="s">
+      <c r="J36" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="22" t="s">
         <v>1294</v>
       </c>
-      <c r="B37" s="34">
+      <c r="B37" s="22">
         <v>4.5</v>
       </c>
-      <c r="C37" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="38" t="s">
+      <c r="C37" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="22" t="s">
         <v>1823</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="22" t="s">
         <v>1826</v>
       </c>
-      <c r="G37" s="34">
+      <c r="G37" s="22">
         <v>512</v>
       </c>
-      <c r="H37" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I37" s="34">
+      <c r="H37" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" s="22">
         <v>64</v>
       </c>
-      <c r="J37" s="34" t="s">
+      <c r="J37" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="22" t="s">
         <v>1295</v>
       </c>
-      <c r="B38" s="34">
+      <c r="B38" s="22">
         <v>47</v>
       </c>
-      <c r="C38" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="38" t="s">
+      <c r="C38" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="22" t="s">
         <v>1831</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F38" s="38" t="s">
+      <c r="F38" s="22" t="s">
         <v>1830</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="22">
         <v>8</v>
       </c>
-      <c r="H38" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I38" s="34">
+      <c r="H38" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38" s="22">
         <v>2</v>
       </c>
-      <c r="J38" s="34" t="s">
+      <c r="J38" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="22" t="s">
         <v>1296</v>
       </c>
-      <c r="B39" s="34">
+      <c r="B39" s="22">
         <v>1.2</v>
       </c>
-      <c r="C39" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="38" t="s">
+      <c r="C39" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>1833</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F39" s="22" t="s">
         <v>1832</v>
       </c>
-      <c r="G39" s="34">
-        <v>1</v>
-      </c>
-      <c r="H39" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I39" s="34">
+      <c r="G39" s="22">
+        <v>1</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39" s="22">
         <v>256</v>
       </c>
-      <c r="J39" s="34" t="s">
+      <c r="J39" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="22" t="s">
         <v>1297</v>
       </c>
-      <c r="B40" s="34">
+      <c r="B40" s="22">
         <v>4.5</v>
       </c>
-      <c r="C40" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="38">
+      <c r="C40" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="22">
         <v>2</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="F40" s="22" t="s">
         <v>1834</v>
       </c>
-      <c r="G40" s="34">
-        <v>1</v>
-      </c>
-      <c r="H40" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I40" s="34">
+      <c r="G40" s="22">
+        <v>1</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40" s="22">
         <v>128</v>
       </c>
-      <c r="J40" s="34" t="s">
+      <c r="J40" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="22" t="s">
         <v>1298</v>
       </c>
-      <c r="B41" s="34">
+      <c r="B41" s="22">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C41" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="38">
+      <c r="C41" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="22">
         <v>2</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="22" t="s">
         <v>1270</v>
       </c>
-      <c r="G41" s="34">
+      <c r="G41" s="22">
         <v>256</v>
       </c>
-      <c r="H41" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I41" s="34">
+      <c r="H41" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="22">
         <v>64</v>
       </c>
-      <c r="J41" s="34" t="s">
+      <c r="J41" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="22" t="s">
         <v>1299</v>
       </c>
-      <c r="B42" s="34">
+      <c r="B42" s="22">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C42" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="38" t="s">
+      <c r="C42" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F42" s="38" t="s">
+      <c r="F42" s="22" t="s">
         <v>1836</v>
       </c>
-      <c r="G42" s="34">
-        <v>1</v>
-      </c>
-      <c r="H42" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I42" s="34">
+      <c r="G42" s="22">
+        <v>1</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="22">
         <v>128</v>
       </c>
-      <c r="J42" s="34" t="s">
+      <c r="J42" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="B43" s="34">
+      <c r="B43" s="22">
         <v>3.5</v>
       </c>
-      <c r="C43" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="38">
+      <c r="C43" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="22">
         <v>2</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F43" s="38" t="s">
+      <c r="F43" s="22" t="s">
         <v>1826</v>
       </c>
-      <c r="G43" s="34">
-        <v>1</v>
-      </c>
-      <c r="H43" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I43" s="34">
+      <c r="G43" s="22">
+        <v>1</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I43" s="22">
         <v>128</v>
       </c>
-      <c r="J43" s="34" t="s">
+      <c r="J43" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="22" t="s">
         <v>1300</v>
       </c>
-      <c r="B44" s="34">
+      <c r="B44" s="22">
         <v>14.8</v>
       </c>
-      <c r="C44" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="38" t="s">
+      <c r="C44" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="22" t="s">
         <v>1838</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F44" s="38" t="s">
+      <c r="F44" s="22" t="s">
         <v>1837</v>
       </c>
-      <c r="G44" s="34">
+      <c r="G44" s="22">
         <v>2.5</v>
       </c>
-      <c r="H44" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I44" s="34">
+      <c r="H44" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I44" s="22">
         <v>512</v>
       </c>
-      <c r="J44" s="34" t="s">
+      <c r="J44" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="22" t="s">
         <v>1301</v>
       </c>
-      <c r="B45" s="34">
+      <c r="B45" s="22">
         <v>4.2</v>
       </c>
-      <c r="C45" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="38">
-        <v>1</v>
-      </c>
-      <c r="E45" s="34" t="s">
+      <c r="C45" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="22">
+        <v>1</v>
+      </c>
+      <c r="E45" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F45" s="38" t="s">
+      <c r="F45" s="22" t="s">
         <v>1839</v>
       </c>
-      <c r="G45" s="34">
+      <c r="G45" s="22">
         <v>256</v>
       </c>
-      <c r="H45" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I45" s="34">
+      <c r="H45" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I45" s="22">
         <v>64</v>
       </c>
-      <c r="J45" s="34" t="s">
+      <c r="J45" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="22" t="s">
         <v>1302</v>
       </c>
-      <c r="B46" s="34">
+      <c r="B46" s="22">
         <v>3.4</v>
       </c>
-      <c r="C46" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="38" t="s">
+      <c r="C46" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="22" t="s">
         <v>1841</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F46" s="38" t="s">
+      <c r="F46" s="22" t="s">
         <v>1840</v>
       </c>
-      <c r="G46" s="34">
+      <c r="G46" s="22">
         <v>2</v>
       </c>
-      <c r="H46" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I46" s="34">
+      <c r="H46" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I46" s="22">
         <v>64</v>
       </c>
-      <c r="J46" s="34" t="s">
+      <c r="J46" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="22" t="s">
         <v>1303</v>
       </c>
-      <c r="B47" s="34">
+      <c r="B47" s="22">
         <v>4</v>
       </c>
-      <c r="C47" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47" s="38" t="s">
+      <c r="C47" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="22" t="s">
         <v>1833</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F47" s="38" t="s">
+      <c r="F47" s="22" t="s">
         <v>1842</v>
       </c>
-      <c r="G47" s="34">
+      <c r="G47" s="22">
         <v>2</v>
       </c>
-      <c r="H47" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I47" s="34">
+      <c r="H47" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I47" s="22">
         <v>256</v>
       </c>
-      <c r="J47" s="34" t="s">
+      <c r="J47" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="B48" s="34">
+      <c r="B48" s="22">
         <v>4.5</v>
       </c>
-      <c r="C48" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="38" t="s">
+      <c r="C48" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="22" t="s">
         <v>1844</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F48" s="38" t="s">
+      <c r="F48" s="22" t="s">
         <v>1843</v>
       </c>
-      <c r="G48" s="34">
+      <c r="G48" s="22">
         <v>512</v>
       </c>
-      <c r="H48" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I48" s="34">
+      <c r="H48" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I48" s="22">
         <v>256</v>
       </c>
-      <c r="J48" s="34" t="s">
+      <c r="J48" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="22" t="s">
         <v>1304</v>
       </c>
-      <c r="B49" s="34">
+      <c r="B49" s="22">
         <v>620</v>
       </c>
-      <c r="C49" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="38" t="s">
+      <c r="C49" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="22" t="s">
         <v>1846</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F49" s="38" t="s">
+      <c r="F49" s="22" t="s">
         <v>1845</v>
       </c>
-      <c r="G49" s="34">
+      <c r="G49" s="22">
         <v>3</v>
       </c>
-      <c r="H49" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I49" s="34">
+      <c r="H49" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I49" s="22">
         <v>256</v>
       </c>
-      <c r="J49" s="34" t="s">
+      <c r="J49" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="22" t="s">
         <v>1305</v>
       </c>
-      <c r="B50" s="38">
+      <c r="B50" s="22">
         <v>7.7</v>
       </c>
-      <c r="C50" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="38" t="s">
+      <c r="C50" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="22" t="s">
         <v>1847</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F50" s="38" t="s">
+      <c r="F50" s="22" t="s">
         <v>1848</v>
       </c>
-      <c r="G50" s="34">
-        <v>1</v>
-      </c>
-      <c r="H50" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I50" s="34">
+      <c r="G50" s="22">
+        <v>1</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" s="22">
         <v>512</v>
       </c>
-      <c r="J50" s="34" t="s">
+      <c r="J50" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="22" t="s">
         <v>1306</v>
       </c>
-      <c r="B51" s="38">
+      <c r="B51" s="22">
         <v>2.4</v>
       </c>
-      <c r="C51" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="38" t="s">
+      <c r="C51" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="22" t="s">
         <v>1847</v>
       </c>
-      <c r="E51" s="34" t="s">
+      <c r="E51" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F51" s="38" t="s">
+      <c r="F51" s="22" t="s">
         <v>1849</v>
       </c>
-      <c r="G51" s="34">
+      <c r="G51" s="22">
         <v>2</v>
       </c>
-      <c r="H51" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I51" s="34">
+      <c r="H51" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51" s="22">
         <v>128</v>
       </c>
-      <c r="J51" s="34" t="s">
+      <c r="J51" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="22" t="s">
         <v>1307</v>
       </c>
-      <c r="B52" s="38">
+      <c r="B52" s="22">
         <v>4.3</v>
       </c>
-      <c r="C52" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="38" t="s">
+      <c r="C52" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="22" t="s">
         <v>1847</v>
       </c>
-      <c r="E52" s="34" t="s">
+      <c r="E52" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F52" s="38" t="s">
+      <c r="F52" s="22" t="s">
         <v>1850</v>
       </c>
-      <c r="G52" s="34">
+      <c r="G52" s="22">
         <v>2</v>
       </c>
-      <c r="H52" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I52" s="34">
+      <c r="H52" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I52" s="22">
         <v>128</v>
       </c>
-      <c r="J52" s="34" t="s">
+      <c r="J52" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="B53" s="38">
+      <c r="B53" s="22">
         <v>1.2</v>
       </c>
-      <c r="C53" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="38" t="s">
+      <c r="C53" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="22" t="s">
         <v>1852</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E53" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F53" s="38" t="s">
+      <c r="F53" s="22" t="s">
         <v>1851</v>
       </c>
-      <c r="G53" s="34">
-        <v>1</v>
-      </c>
-      <c r="H53" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I53" s="34">
+      <c r="G53" s="22">
+        <v>1</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53" s="22">
         <v>128</v>
       </c>
-      <c r="J53" s="34" t="s">
+      <c r="J53" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="22" t="s">
         <v>1308</v>
       </c>
-      <c r="B54" s="38">
+      <c r="B54" s="22">
         <v>307</v>
       </c>
-      <c r="C54" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="38">
-        <v>1</v>
-      </c>
-      <c r="E54" s="34" t="s">
+      <c r="C54" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="22">
+        <v>1</v>
+      </c>
+      <c r="E54" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F54" s="38" t="s">
+      <c r="F54" s="22" t="s">
         <v>1853</v>
       </c>
-      <c r="G54" s="34">
+      <c r="G54" s="22">
         <v>128</v>
       </c>
-      <c r="H54" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I54" s="34">
+      <c r="H54" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I54" s="22">
         <v>128</v>
       </c>
-      <c r="J54" s="34" t="s">
+      <c r="J54" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="22" t="s">
         <v>1854</v>
       </c>
-      <c r="B55" s="38">
+      <c r="B55" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C55" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" s="38" t="s">
+      <c r="C55" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E55" s="34" t="s">
+      <c r="E55" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F55" s="38" t="s">
+      <c r="F55" s="22" t="s">
         <v>1855</v>
       </c>
-      <c r="G55" s="34">
+      <c r="G55" s="22">
         <v>1.5</v>
       </c>
-      <c r="H55" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I55" s="34">
+      <c r="H55" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I55" s="22">
         <v>128</v>
       </c>
-      <c r="J55" s="34" t="s">
+      <c r="J55" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="22" t="s">
         <v>988</v>
       </c>
-      <c r="B56" s="38">
+      <c r="B56" s="22">
         <v>2.5</v>
       </c>
-      <c r="C56" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" s="38" t="s">
+      <c r="C56" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="22" t="s">
         <v>1857</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F56" s="38" t="s">
+      <c r="F56" s="22" t="s">
         <v>1856</v>
       </c>
-      <c r="G56" s="34">
+      <c r="G56" s="22">
         <v>256</v>
       </c>
-      <c r="H56" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I56" s="34">
+      <c r="H56" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I56" s="22">
         <v>32</v>
       </c>
-      <c r="J56" s="34" t="s">
+      <c r="J56" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="22" t="s">
         <v>1309</v>
       </c>
-      <c r="B57" s="38">
+      <c r="B57" s="22">
         <v>824</v>
       </c>
-      <c r="C57" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" s="38">
+      <c r="C57" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="22">
         <v>800</v>
       </c>
-      <c r="E57" s="34" t="s">
+      <c r="E57" s="22" t="s">
         <v>1616</v>
       </c>
-      <c r="F57" s="38" t="s">
+      <c r="F57" s="22" t="s">
         <v>1858</v>
       </c>
-      <c r="G57" s="34">
+      <c r="G57" s="22">
         <v>256</v>
       </c>
-      <c r="H57" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I57" s="34">
+      <c r="H57" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I57" s="22">
         <v>32</v>
       </c>
-      <c r="J57" s="34" t="s">
+      <c r="J57" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="22" t="s">
         <v>1310</v>
       </c>
-      <c r="B58" s="38">
+      <c r="B58" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C58" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="38">
+      <c r="C58" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="22">
         <v>800</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E58" s="22" t="s">
         <v>1616</v>
       </c>
-      <c r="F58" s="38" t="s">
+      <c r="F58" s="22" t="s">
         <v>1858</v>
       </c>
-      <c r="G58" s="34">
+      <c r="G58" s="22">
         <v>256</v>
       </c>
-      <c r="H58" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I58" s="34">
+      <c r="H58" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" s="22">
         <v>32</v>
       </c>
-      <c r="J58" s="34" t="s">
+      <c r="J58" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="22" t="s">
         <v>1311</v>
       </c>
-      <c r="B59" s="38">
+      <c r="B59" s="22">
         <v>648</v>
       </c>
-      <c r="C59" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D59" s="38">
+      <c r="C59" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="22">
         <v>800</v>
       </c>
-      <c r="E59" s="34" t="s">
+      <c r="E59" s="22" t="s">
         <v>1616</v>
       </c>
-      <c r="F59" s="38" t="s">
+      <c r="F59" s="22" t="s">
         <v>1859</v>
       </c>
-      <c r="G59" s="34">
+      <c r="G59" s="22">
         <v>256</v>
       </c>
-      <c r="H59" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I59" s="34">
+      <c r="H59" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I59" s="22">
         <v>32</v>
       </c>
-      <c r="J59" s="34" t="s">
+      <c r="J59" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="22" t="s">
         <v>1312</v>
       </c>
-      <c r="B60" s="38">
+      <c r="B60" s="22">
         <v>256</v>
       </c>
-      <c r="C60" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D60" s="38">
-        <v>1</v>
-      </c>
-      <c r="E60" s="34" t="s">
+      <c r="C60" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="22">
+        <v>1</v>
+      </c>
+      <c r="E60" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F60" s="38" t="s">
+      <c r="F60" s="22" t="s">
         <v>1860</v>
       </c>
-      <c r="G60" s="34">
+      <c r="G60" s="22">
         <v>512</v>
       </c>
-      <c r="H60" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I60" s="34">
+      <c r="H60" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I60" s="22">
         <v>32</v>
       </c>
-      <c r="J60" s="34" t="s">
+      <c r="J60" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="22" t="s">
         <v>1313</v>
       </c>
-      <c r="B61" s="38">
+      <c r="B61" s="22">
         <v>323</v>
       </c>
-      <c r="C61" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="38">
-        <v>1</v>
-      </c>
-      <c r="E61" s="34" t="s">
+      <c r="C61" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="22">
+        <v>1</v>
+      </c>
+      <c r="E61" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F61" s="38" t="s">
+      <c r="F61" s="22" t="s">
         <v>1860</v>
       </c>
-      <c r="G61" s="34">
+      <c r="G61" s="22">
         <v>512</v>
       </c>
-      <c r="H61" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I61" s="34">
+      <c r="H61" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I61" s="22">
         <v>32</v>
       </c>
-      <c r="J61" s="34" t="s">
+      <c r="J61" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="22" t="s">
         <v>1314</v>
       </c>
-      <c r="B62" s="38">
+      <c r="B62" s="22">
         <v>747</v>
       </c>
-      <c r="C62" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D62" s="38" t="s">
+      <c r="C62" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="22" t="s">
         <v>1857</v>
       </c>
-      <c r="E62" s="34" t="s">
+      <c r="E62" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F62" s="38" t="s">
+      <c r="F62" s="22" t="s">
         <v>1858</v>
       </c>
-      <c r="G62" s="34">
+      <c r="G62" s="22">
         <v>256</v>
       </c>
-      <c r="H62" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I62" s="34">
+      <c r="H62" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I62" s="22">
         <v>32</v>
       </c>
-      <c r="J62" s="34" t="s">
+      <c r="J62" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="22" t="s">
         <v>1315</v>
       </c>
-      <c r="B63" s="38">
+      <c r="B63" s="22">
         <v>145</v>
       </c>
-      <c r="C63" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D63" s="38">
-        <v>1</v>
-      </c>
-      <c r="E63" s="34" t="s">
+      <c r="C63" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="22">
+        <v>1</v>
+      </c>
+      <c r="E63" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F63" s="38" t="s">
+      <c r="F63" s="22" t="s">
         <v>1860</v>
       </c>
-      <c r="G63" s="34">
+      <c r="G63" s="22">
         <v>512</v>
       </c>
-      <c r="H63" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I63" s="34">
+      <c r="H63" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I63" s="22">
         <v>32</v>
       </c>
-      <c r="J63" s="34" t="s">
+      <c r="J63" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="34" t="s">
+      <c r="A64" s="22" t="s">
         <v>1316</v>
       </c>
-      <c r="B64" s="38">
+      <c r="B64" s="22">
         <v>796</v>
       </c>
-      <c r="C64" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" s="38" t="s">
+      <c r="C64" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" s="22" t="s">
         <v>1857</v>
       </c>
-      <c r="E64" s="34" t="s">
+      <c r="E64" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F64" s="38" t="s">
+      <c r="F64" s="22" t="s">
         <v>1860</v>
       </c>
-      <c r="G64" s="34">
+      <c r="G64" s="22">
         <v>512</v>
       </c>
-      <c r="H64" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I64" s="34">
+      <c r="H64" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I64" s="22">
         <v>32</v>
       </c>
-      <c r="J64" s="34" t="s">
+      <c r="J64" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="22" t="s">
         <v>1317</v>
       </c>
-      <c r="B65" s="38">
+      <c r="B65" s="22">
         <v>332</v>
       </c>
-      <c r="C65" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" s="38">
-        <v>1</v>
-      </c>
-      <c r="E65" s="34" t="s">
+      <c r="C65" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="22">
+        <v>1</v>
+      </c>
+      <c r="E65" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F65" s="38" t="s">
+      <c r="F65" s="22" t="s">
         <v>1860</v>
       </c>
-      <c r="G65" s="34">
+      <c r="G65" s="22">
         <v>512</v>
       </c>
-      <c r="H65" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I65" s="34">
+      <c r="H65" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I65" s="22">
         <v>32</v>
       </c>
-      <c r="J65" s="34" t="s">
+      <c r="J65" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="34" t="s">
+      <c r="A66" s="22" t="s">
         <v>1318</v>
       </c>
-      <c r="B66" s="38">
+      <c r="B66" s="22">
         <v>444</v>
       </c>
-      <c r="C66" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66" s="38">
-        <v>1</v>
-      </c>
-      <c r="E66" s="34" t="s">
+      <c r="C66" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="22">
+        <v>1</v>
+      </c>
+      <c r="E66" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F66" s="38" t="s">
+      <c r="F66" s="22" t="s">
         <v>1860</v>
       </c>
-      <c r="G66" s="34">
+      <c r="G66" s="22">
         <v>512</v>
       </c>
-      <c r="H66" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I66" s="34">
+      <c r="H66" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I66" s="22">
         <v>32</v>
       </c>
-      <c r="J66" s="34" t="s">
+      <c r="J66" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="22" t="s">
         <v>1319</v>
       </c>
-      <c r="B67" s="38">
+      <c r="B67" s="22">
         <v>827</v>
       </c>
-      <c r="C67" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D67" s="38" t="s">
+      <c r="C67" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" s="22" t="s">
         <v>1857</v>
       </c>
-      <c r="E67" s="34" t="s">
+      <c r="E67" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F67" s="38" t="s">
+      <c r="F67" s="22" t="s">
         <v>1861</v>
       </c>
-      <c r="G67" s="34">
+      <c r="G67" s="22">
         <v>512</v>
       </c>
-      <c r="H67" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I67" s="34">
+      <c r="H67" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I67" s="22">
         <v>32</v>
       </c>
-      <c r="J67" s="34" t="s">
+      <c r="J67" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="22" t="s">
         <v>1320</v>
       </c>
-      <c r="B68" s="38">
+      <c r="B68" s="22">
         <v>519</v>
       </c>
-      <c r="C68" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D68" s="38">
-        <v>1</v>
-      </c>
-      <c r="E68" s="34" t="s">
+      <c r="C68" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="22">
+        <v>1</v>
+      </c>
+      <c r="E68" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F68" s="38" t="s">
+      <c r="F68" s="22" t="s">
         <v>1860</v>
       </c>
-      <c r="G68" s="34">
+      <c r="G68" s="22">
         <v>512</v>
       </c>
-      <c r="H68" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I68" s="34">
+      <c r="H68" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I68" s="22">
         <v>32</v>
       </c>
-      <c r="J68" s="34" t="s">
+      <c r="J68" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="22" t="s">
         <v>1325</v>
       </c>
-      <c r="B69" s="38">
-        <v>1</v>
-      </c>
-      <c r="C69" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D69" s="38" t="s">
+      <c r="B69" s="22">
+        <v>1</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="22" t="s">
         <v>1820</v>
       </c>
-      <c r="E69" s="34" t="s">
+      <c r="E69" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F69" s="38" t="s">
+      <c r="F69" s="22" t="s">
         <v>1862</v>
       </c>
-      <c r="G69" s="34">
+      <c r="G69" s="22">
         <v>512</v>
       </c>
-      <c r="H69" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I69" s="34">
+      <c r="H69" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I69" s="22">
         <v>32</v>
       </c>
-      <c r="J69" s="34" t="s">
+      <c r="J69" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="34" t="s">
+      <c r="A70" s="22" t="s">
         <v>1321</v>
       </c>
-      <c r="B70" s="38">
+      <c r="B70" s="22">
         <v>423</v>
       </c>
-      <c r="C70" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D70" s="38" t="s">
+      <c r="C70" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="22" t="s">
         <v>1857</v>
       </c>
-      <c r="E70" s="34" t="s">
+      <c r="E70" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F70" s="38" t="s">
+      <c r="F70" s="22" t="s">
         <v>1860</v>
       </c>
-      <c r="G70" s="34">
+      <c r="G70" s="22">
         <v>512</v>
       </c>
-      <c r="H70" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I70" s="34">
+      <c r="H70" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I70" s="22">
         <v>32</v>
       </c>
-      <c r="J70" s="34" t="s">
+      <c r="J70" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="34" t="s">
+      <c r="A71" s="22" t="s">
         <v>1322</v>
       </c>
-      <c r="B71" s="38">
+      <c r="B71" s="22">
         <v>434</v>
       </c>
-      <c r="C71" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="38" t="s">
+      <c r="C71" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="22" t="s">
         <v>1857</v>
       </c>
-      <c r="E71" s="34" t="s">
+      <c r="E71" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F71" s="38" t="s">
+      <c r="F71" s="22" t="s">
         <v>1860</v>
       </c>
-      <c r="G71" s="34">
+      <c r="G71" s="22">
         <v>512</v>
       </c>
-      <c r="H71" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I71" s="34">
+      <c r="H71" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" s="22">
         <v>32</v>
       </c>
-      <c r="J71" s="34" t="s">
+      <c r="J71" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="34" t="s">
+      <c r="A72" s="22" t="s">
         <v>1323</v>
       </c>
-      <c r="B72" s="38">
+      <c r="B72" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C72" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D72" s="38" t="s">
+      <c r="C72" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="22" t="s">
         <v>1833</v>
       </c>
-      <c r="E72" s="34" t="s">
+      <c r="E72" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F72" s="41" t="s">
+      <c r="F72" s="26" t="s">
         <v>1863</v>
       </c>
-      <c r="G72" s="34">
+      <c r="G72" s="22">
         <v>512</v>
       </c>
-      <c r="H72" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I72" s="34">
+      <c r="H72" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I72" s="22">
         <v>32</v>
       </c>
-      <c r="J72" s="34" t="s">
+      <c r="J72" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="22" t="s">
         <v>1324</v>
       </c>
-      <c r="B73" s="38">
+      <c r="B73" s="22">
         <v>751</v>
       </c>
-      <c r="C73" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="38" t="s">
+      <c r="C73" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="22" t="s">
         <v>1857</v>
       </c>
-      <c r="E73" s="34" t="s">
+      <c r="E73" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F73" s="38" t="s">
+      <c r="F73" s="22" t="s">
         <v>1860</v>
       </c>
-      <c r="G73" s="34">
+      <c r="G73" s="22">
         <v>512</v>
       </c>
-      <c r="H73" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I73" s="34">
+      <c r="H73" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I73" s="22">
         <v>32</v>
       </c>
-      <c r="J73" s="34" t="s">
+      <c r="J73" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="38" t="s">
+      <c r="A74" s="22" t="s">
         <v>1327</v>
       </c>
-      <c r="B74" s="38">
+      <c r="B74" s="22">
         <v>2.4</v>
       </c>
-      <c r="C74" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D74" s="38" t="s">
+      <c r="C74" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E74" s="34" t="s">
+      <c r="E74" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F74" s="37" t="s">
+      <c r="F74" s="23" t="s">
         <v>1864</v>
       </c>
-      <c r="G74" s="34">
+      <c r="G74" s="22">
         <v>1.5</v>
       </c>
-      <c r="H74" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I74" s="34">
+      <c r="H74" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I74" s="22">
         <v>128</v>
       </c>
-      <c r="J74" s="34" t="s">
+      <c r="J74" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="38" t="s">
+      <c r="A75" s="22" t="s">
         <v>1326</v>
       </c>
-      <c r="B75" s="38">
+      <c r="B75" s="22">
         <v>6</v>
       </c>
-      <c r="C75" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" s="38" t="s">
+      <c r="C75" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E75" s="34" t="s">
+      <c r="E75" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F75" s="37" t="s">
+      <c r="F75" s="23" t="s">
         <v>1864</v>
       </c>
-      <c r="G75" s="34">
+      <c r="G75" s="22">
         <v>1.5</v>
       </c>
-      <c r="H75" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I75" s="34">
+      <c r="H75" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I75" s="22">
         <v>128</v>
       </c>
-      <c r="J75" s="34" t="s">
+      <c r="J75" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75">
-      <c r="A76" s="38" t="s">
+      <c r="A76" s="22" t="s">
         <v>1328</v>
       </c>
-      <c r="B76" s="38">
+      <c r="B76" s="22">
         <v>5.8</v>
       </c>
-      <c r="C76" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D76" s="38" t="s">
+      <c r="C76" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E76" s="34" t="s">
+      <c r="E76" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F76" s="42" t="s">
+      <c r="F76" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G76" s="34">
+      <c r="G76" s="22">
         <v>1.5</v>
       </c>
-      <c r="H76" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I76" s="34">
+      <c r="H76" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I76" s="22">
         <v>128</v>
       </c>
-      <c r="J76" s="34" t="s">
+      <c r="J76" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75">
-      <c r="A77" s="38" t="s">
+      <c r="A77" s="22" t="s">
         <v>1329</v>
       </c>
-      <c r="B77" s="38">
+      <c r="B77" s="22">
         <v>4.8</v>
       </c>
-      <c r="C77" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77" s="38" t="s">
+      <c r="C77" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E77" s="34" t="s">
+      <c r="E77" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F77" s="42" t="s">
+      <c r="F77" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G77" s="34">
+      <c r="G77" s="22">
         <v>1.5</v>
       </c>
-      <c r="H77" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I77" s="34">
+      <c r="H77" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I77" s="22">
         <v>128</v>
       </c>
-      <c r="J77" s="34" t="s">
+      <c r="J77" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75">
-      <c r="A78" s="38" t="s">
+      <c r="A78" s="22" t="s">
         <v>1330</v>
       </c>
-      <c r="B78" s="38">
+      <c r="B78" s="22">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C78" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78" s="38" t="s">
+      <c r="C78" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E78" s="34" t="s">
+      <c r="E78" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F78" s="42" t="s">
+      <c r="F78" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G78" s="34">
+      <c r="G78" s="22">
         <v>1.5</v>
       </c>
-      <c r="H78" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I78" s="34">
+      <c r="H78" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I78" s="22">
         <v>128</v>
       </c>
-      <c r="J78" s="34" t="s">
+      <c r="J78" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75">
-      <c r="A79" s="38" t="s">
+      <c r="A79" s="22" t="s">
         <v>1332</v>
       </c>
-      <c r="B79" s="38">
+      <c r="B79" s="22">
         <v>2.6</v>
       </c>
-      <c r="C79" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D79" s="38" t="s">
+      <c r="C79" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E79" s="34" t="s">
+      <c r="E79" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F79" s="42" t="s">
+      <c r="F79" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G79" s="34">
+      <c r="G79" s="22">
         <v>1.5</v>
       </c>
-      <c r="H79" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I79" s="34">
+      <c r="H79" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I79" s="22">
         <v>128</v>
       </c>
-      <c r="J79" s="34" t="s">
+      <c r="J79" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75">
-      <c r="A80" s="38" t="s">
+      <c r="A80" s="22" t="s">
         <v>1331</v>
       </c>
-      <c r="B80" s="38">
+      <c r="B80" s="22">
         <v>7.2</v>
       </c>
-      <c r="C80" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D80" s="38" t="s">
+      <c r="C80" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E80" s="34" t="s">
+      <c r="E80" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F80" s="42" t="s">
+      <c r="F80" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G80" s="34">
+      <c r="G80" s="22">
         <v>1.5</v>
       </c>
-      <c r="H80" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I80" s="34">
+      <c r="H80" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I80" s="22">
         <v>128</v>
       </c>
-      <c r="J80" s="34" t="s">
+      <c r="J80" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75">
-      <c r="A81" s="38" t="s">
+      <c r="A81" s="22" t="s">
         <v>1333</v>
       </c>
-      <c r="B81" s="38">
+      <c r="B81" s="22">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C81" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D81" s="38" t="s">
+      <c r="C81" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D81" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E81" s="34" t="s">
+      <c r="E81" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F81" s="42" t="s">
+      <c r="F81" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G81" s="34">
+      <c r="G81" s="22">
         <v>1.5</v>
       </c>
-      <c r="H81" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I81" s="34">
+      <c r="H81" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I81" s="22">
         <v>128</v>
       </c>
-      <c r="J81" s="34" t="s">
+      <c r="J81" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.75">
-      <c r="A82" s="38" t="s">
+      <c r="A82" s="22" t="s">
         <v>1334</v>
       </c>
-      <c r="B82" s="38">
+      <c r="B82" s="22">
         <v>5.3</v>
       </c>
-      <c r="C82" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D82" s="34" t="s">
+      <c r="C82" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E82" s="34" t="s">
+      <c r="E82" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F82" s="42" t="s">
+      <c r="F82" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G82" s="34">
+      <c r="G82" s="22">
         <v>1.5</v>
       </c>
-      <c r="H82" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I82" s="34">
+      <c r="H82" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I82" s="22">
         <v>128</v>
       </c>
-      <c r="J82" s="34" t="s">
+      <c r="J82" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75">
-      <c r="A83" s="38" t="s">
+      <c r="A83" s="22" t="s">
         <v>1335</v>
       </c>
-      <c r="B83" s="38">
+      <c r="B83" s="22">
         <v>1.9</v>
       </c>
-      <c r="C83" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D83" s="34" t="s">
+      <c r="C83" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E83" s="34" t="s">
+      <c r="E83" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F83" s="42" t="s">
+      <c r="F83" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G83" s="34">
+      <c r="G83" s="22">
         <v>1.5</v>
       </c>
-      <c r="H83" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I83" s="34">
+      <c r="H83" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I83" s="22">
         <v>128</v>
       </c>
-      <c r="J83" s="34" t="s">
+      <c r="J83" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="22" t="s">
         <v>1336</v>
       </c>
-      <c r="B84" s="38">
+      <c r="B84" s="22">
         <v>4.3</v>
       </c>
-      <c r="C84" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D84" s="34" t="s">
+      <c r="C84" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E84" s="34" t="s">
+      <c r="E84" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F84" s="42" t="s">
+      <c r="F84" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G84" s="34">
+      <c r="G84" s="22">
         <v>1.5</v>
       </c>
-      <c r="H84" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I84" s="34">
+      <c r="H84" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I84" s="22">
         <v>128</v>
       </c>
-      <c r="J84" s="34" t="s">
+      <c r="J84" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75">
-      <c r="A85" s="38" t="s">
+      <c r="A85" s="22" t="s">
         <v>1337</v>
       </c>
-      <c r="B85" s="38">
+      <c r="B85" s="22">
         <v>2.5</v>
       </c>
-      <c r="C85" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D85" s="34" t="s">
+      <c r="C85" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E85" s="34" t="s">
+      <c r="E85" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F85" s="42" t="s">
+      <c r="F85" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G85" s="34">
+      <c r="G85" s="22">
         <v>1.5</v>
       </c>
-      <c r="H85" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I85" s="34">
+      <c r="H85" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I85" s="22">
         <v>128</v>
       </c>
-      <c r="J85" s="34" t="s">
+      <c r="J85" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75">
-      <c r="A86" s="38" t="s">
+      <c r="A86" s="22" t="s">
         <v>1338</v>
       </c>
-      <c r="B86" s="38">
+      <c r="B86" s="22">
         <v>5.6</v>
       </c>
-      <c r="C86" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D86" s="34" t="s">
+      <c r="C86" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E86" s="34" t="s">
+      <c r="E86" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F86" s="42" t="s">
+      <c r="F86" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G86" s="34">
+      <c r="G86" s="22">
         <v>1.5</v>
       </c>
-      <c r="H86" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I86" s="34">
+      <c r="H86" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I86" s="22">
         <v>128</v>
       </c>
-      <c r="J86" s="34" t="s">
+      <c r="J86" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75">
-      <c r="A87" s="38" t="s">
+      <c r="A87" s="22" t="s">
         <v>1339</v>
       </c>
-      <c r="B87" s="38">
+      <c r="B87" s="22">
         <v>2.8</v>
       </c>
-      <c r="C87" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D87" s="34" t="s">
+      <c r="C87" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E87" s="34" t="s">
+      <c r="E87" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F87" s="42" t="s">
+      <c r="F87" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G87" s="34">
+      <c r="G87" s="22">
         <v>1.5</v>
       </c>
-      <c r="H87" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I87" s="34">
+      <c r="H87" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I87" s="22">
         <v>128</v>
       </c>
-      <c r="J87" s="34" t="s">
+      <c r="J87" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75">
-      <c r="A88" s="38" t="s">
+      <c r="A88" s="22" t="s">
         <v>1340</v>
       </c>
-      <c r="B88" s="38">
+      <c r="B88" s="22">
         <v>2.8</v>
       </c>
-      <c r="C88" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D88" s="34" t="s">
+      <c r="C88" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E88" s="34" t="s">
+      <c r="E88" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F88" s="42" t="s">
+      <c r="F88" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G88" s="34">
+      <c r="G88" s="22">
         <v>1.5</v>
       </c>
-      <c r="H88" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I88" s="34">
+      <c r="H88" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I88" s="22">
         <v>128</v>
       </c>
-      <c r="J88" s="34" t="s">
+      <c r="J88" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75">
-      <c r="A89" s="38" t="s">
+      <c r="A89" s="22" t="s">
         <v>1341</v>
       </c>
-      <c r="B89" s="38">
+      <c r="B89" s="22">
         <v>3.5</v>
       </c>
-      <c r="C89" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D89" s="34" t="s">
+      <c r="C89" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E89" s="34" t="s">
+      <c r="E89" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F89" s="42" t="s">
+      <c r="F89" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G89" s="34">
+      <c r="G89" s="22">
         <v>1.5</v>
       </c>
-      <c r="H89" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I89" s="34">
+      <c r="H89" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I89" s="22">
         <v>128</v>
       </c>
-      <c r="J89" s="34" t="s">
+      <c r="J89" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75">
-      <c r="A90" s="38" t="s">
+      <c r="A90" s="22" t="s">
         <v>1342</v>
       </c>
-      <c r="B90" s="38">
+      <c r="B90" s="22">
         <v>4.2</v>
       </c>
-      <c r="C90" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D90" s="34" t="s">
+      <c r="C90" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E90" s="34" t="s">
+      <c r="E90" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F90" s="42" t="s">
+      <c r="F90" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G90" s="34">
+      <c r="G90" s="22">
         <v>1.5</v>
       </c>
-      <c r="H90" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I90" s="34">
+      <c r="H90" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I90" s="22">
         <v>128</v>
       </c>
-      <c r="J90" s="34" t="s">
+      <c r="J90" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75">
-      <c r="A91" s="38" t="s">
+      <c r="A91" s="22" t="s">
         <v>1343</v>
       </c>
-      <c r="B91" s="38">
+      <c r="B91" s="22">
         <v>3.3</v>
       </c>
-      <c r="C91" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D91" s="34" t="s">
+      <c r="C91" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E91" s="34" t="s">
+      <c r="E91" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F91" s="42" t="s">
+      <c r="F91" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G91" s="34">
+      <c r="G91" s="22">
         <v>1.5</v>
       </c>
-      <c r="H91" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I91" s="34">
+      <c r="H91" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I91" s="22">
         <v>128</v>
       </c>
-      <c r="J91" s="34" t="s">
+      <c r="J91" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="22" t="s">
         <v>1344</v>
       </c>
-      <c r="B92" s="38">
+      <c r="B92" s="22">
         <v>5.6</v>
       </c>
-      <c r="C92" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D92" s="34" t="s">
+      <c r="C92" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D92" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E92" s="34" t="s">
+      <c r="E92" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F92" s="42" t="s">
+      <c r="F92" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G92" s="34">
+      <c r="G92" s="22">
         <v>1.5</v>
       </c>
-      <c r="H92" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I92" s="34">
+      <c r="H92" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I92" s="22">
         <v>128</v>
       </c>
-      <c r="J92" s="34" t="s">
+      <c r="J92" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="22" t="s">
         <v>1345</v>
       </c>
-      <c r="B93" s="38">
+      <c r="B93" s="22">
         <v>4.7</v>
       </c>
-      <c r="C93" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D93" s="34" t="s">
+      <c r="C93" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E93" s="34" t="s">
+      <c r="E93" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F93" s="42" t="s">
+      <c r="F93" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G93" s="34">
+      <c r="G93" s="22">
         <v>1.5</v>
       </c>
-      <c r="H93" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I93" s="34">
+      <c r="H93" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I93" s="22">
         <v>128</v>
       </c>
-      <c r="J93" s="34" t="s">
+      <c r="J93" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75">
-      <c r="A94" s="38" t="s">
+      <c r="A94" s="22" t="s">
         <v>1346</v>
       </c>
-      <c r="B94" s="38">
+      <c r="B94" s="22">
         <v>1.5</v>
       </c>
-      <c r="C94" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D94" s="34" t="s">
+      <c r="C94" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D94" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E94" s="34" t="s">
+      <c r="E94" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F94" s="42" t="s">
+      <c r="F94" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G94" s="34">
+      <c r="G94" s="22">
         <v>1.5</v>
       </c>
-      <c r="H94" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I94" s="34">
+      <c r="H94" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I94" s="22">
         <v>128</v>
       </c>
-      <c r="J94" s="34" t="s">
+      <c r="J94" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.75">
-      <c r="A95" s="38" t="s">
+      <c r="A95" s="22" t="s">
         <v>1347</v>
       </c>
-      <c r="B95" s="38">
+      <c r="B95" s="22">
         <v>1.7</v>
       </c>
-      <c r="C95" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D95" s="34" t="s">
+      <c r="C95" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D95" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E95" s="34" t="s">
+      <c r="E95" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F95" s="42" t="s">
+      <c r="F95" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G95" s="34">
+      <c r="G95" s="22">
         <v>1.5</v>
       </c>
-      <c r="H95" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I95" s="34">
+      <c r="H95" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I95" s="22">
         <v>128</v>
       </c>
-      <c r="J95" s="34" t="s">
+      <c r="J95" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75">
-      <c r="A96" s="38" t="s">
+      <c r="A96" s="22" t="s">
         <v>1348</v>
       </c>
-      <c r="B96" s="38">
+      <c r="B96" s="22">
         <v>6.6</v>
       </c>
-      <c r="C96" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D96" s="34" t="s">
+      <c r="C96" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D96" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E96" s="34" t="s">
+      <c r="E96" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F96" s="42" t="s">
+      <c r="F96" s="27" t="s">
         <v>1865</v>
       </c>
-      <c r="G96" s="34">
+      <c r="G96" s="22">
         <v>1.5</v>
       </c>
-      <c r="H96" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I96" s="34">
+      <c r="H96" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I96" s="22">
         <v>128</v>
       </c>
-      <c r="J96" s="34" t="s">
+      <c r="J96" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="38" t="s">
+      <c r="A97" s="22" t="s">
         <v>1986</v>
       </c>
-      <c r="B97" s="38">
+      <c r="B97" s="22">
         <v>25.9</v>
       </c>
-      <c r="C97" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D97" s="38" t="s">
+      <c r="C97" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97" s="22" t="s">
         <v>1867</v>
       </c>
-      <c r="E97" s="34" t="s">
+      <c r="E97" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F97" s="38" t="s">
+      <c r="F97" s="22" t="s">
         <v>1866</v>
       </c>
-      <c r="G97" s="34">
+      <c r="G97" s="22">
         <v>4</v>
       </c>
-      <c r="H97" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I97" s="34">
+      <c r="H97" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I97" s="22">
         <v>256</v>
       </c>
-      <c r="J97" s="34" t="s">
+      <c r="J97" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="38" t="s">
+      <c r="A98" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="B98" s="38">
+      <c r="B98" s="22">
         <v>672</v>
       </c>
-      <c r="C98" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D98" s="38" t="s">
+      <c r="C98" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D98" s="22" t="s">
         <v>1869</v>
       </c>
-      <c r="E98" s="34" t="s">
+      <c r="E98" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F98" s="38" t="s">
+      <c r="F98" s="22" t="s">
         <v>1868</v>
       </c>
-      <c r="G98" s="34">
+      <c r="G98" s="22">
         <v>256</v>
       </c>
-      <c r="H98" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I98" s="34">
+      <c r="H98" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I98" s="22">
         <v>32</v>
       </c>
-      <c r="J98" s="34" t="s">
+      <c r="J98" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="38" t="s">
+      <c r="A99" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="B99" s="38">
+      <c r="B99" s="22">
         <v>1.3</v>
       </c>
-      <c r="C99" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D99" s="38" t="s">
+      <c r="C99" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D99" s="22" t="s">
         <v>1869</v>
       </c>
-      <c r="E99" s="34" t="s">
+      <c r="E99" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F99" s="38" t="s">
+      <c r="F99" s="22" t="s">
         <v>1868</v>
       </c>
-      <c r="G99" s="34">
+      <c r="G99" s="22">
         <v>256</v>
       </c>
-      <c r="H99" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I99" s="34">
+      <c r="H99" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I99" s="22">
         <v>32</v>
       </c>
-      <c r="J99" s="34" t="s">
+      <c r="J99" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="38" t="s">
+      <c r="A100" s="22" t="s">
         <v>1349</v>
       </c>
-      <c r="B100" s="38">
+      <c r="B100" s="22">
         <v>28.9</v>
       </c>
-      <c r="C100" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D100" s="38" t="s">
+      <c r="C100" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D100" s="22" t="s">
         <v>1871</v>
       </c>
-      <c r="E100" s="34" t="s">
+      <c r="E100" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F100" s="38" t="s">
+      <c r="F100" s="22" t="s">
         <v>1870</v>
       </c>
-      <c r="G100" s="34">
+      <c r="G100" s="22">
         <v>2</v>
       </c>
-      <c r="H100" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I100" s="34">
+      <c r="H100" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I100" s="22">
         <v>512</v>
       </c>
-      <c r="J100" s="34" t="s">
+      <c r="J100" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="38" t="s">
+      <c r="A101" s="22" t="s">
         <v>1350</v>
       </c>
-      <c r="B101" s="38">
+      <c r="B101" s="22">
         <v>19.2</v>
       </c>
-      <c r="C101" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D101" s="38" t="s">
+      <c r="C101" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D101" s="22" t="s">
         <v>1873</v>
       </c>
-      <c r="E101" s="34" t="s">
+      <c r="E101" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F101" s="38" t="s">
+      <c r="F101" s="22" t="s">
         <v>1872</v>
       </c>
-      <c r="G101" s="34">
+      <c r="G101" s="22">
         <v>2</v>
       </c>
-      <c r="H101" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I101" s="34">
+      <c r="H101" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I101" s="22">
         <v>512</v>
       </c>
-      <c r="J101" s="34" t="s">
+      <c r="J101" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="38" t="s">
+      <c r="A102" s="22" t="s">
         <v>1351</v>
       </c>
-      <c r="B102" s="38">
+      <c r="B102" s="22">
         <v>552</v>
       </c>
-      <c r="C102" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D102" s="38" t="s">
+      <c r="C102" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D102" s="22" t="s">
         <v>1875</v>
       </c>
-      <c r="E102" s="34" t="s">
+      <c r="E102" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F102" s="38" t="s">
+      <c r="F102" s="22" t="s">
         <v>1874</v>
       </c>
-      <c r="G102" s="34">
+      <c r="G102" s="22">
         <v>4</v>
       </c>
-      <c r="H102" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I102" s="34">
-        <v>1</v>
-      </c>
-      <c r="J102" s="34" t="s">
+      <c r="H102" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I102" s="22">
+        <v>1</v>
+      </c>
+      <c r="J102" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="38" t="s">
+      <c r="A103" s="22" t="s">
         <v>1352</v>
       </c>
-      <c r="B103" s="38">
+      <c r="B103" s="22">
         <v>597</v>
       </c>
-      <c r="C103" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D103" s="38">
-        <v>1</v>
-      </c>
-      <c r="E103" s="34" t="s">
+      <c r="C103" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D103" s="22">
+        <v>1</v>
+      </c>
+      <c r="E103" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F103" s="38" t="s">
+      <c r="F103" s="22" t="s">
         <v>1755</v>
       </c>
-      <c r="G103" s="34">
+      <c r="G103" s="22">
         <v>256</v>
       </c>
-      <c r="H103" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I103" s="34">
+      <c r="H103" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I103" s="22">
         <v>64</v>
       </c>
-      <c r="J103" s="34" t="s">
+      <c r="J103" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="38" t="s">
+      <c r="A104" s="22" t="s">
         <v>1353</v>
       </c>
-      <c r="B104" s="38">
+      <c r="B104" s="22">
         <v>567</v>
       </c>
-      <c r="C104" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D104" s="38">
+      <c r="C104" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D104" s="22">
         <v>100</v>
       </c>
-      <c r="E104" s="34" t="s">
+      <c r="E104" s="22" t="s">
         <v>1616</v>
       </c>
-      <c r="F104" s="38" t="s">
+      <c r="F104" s="22" t="s">
         <v>1876</v>
       </c>
-      <c r="G104" s="34">
+      <c r="G104" s="22">
         <v>16</v>
       </c>
-      <c r="H104" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I104" s="34">
+      <c r="H104" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I104" s="22">
         <v>256</v>
       </c>
-      <c r="J104" s="34" t="s">
+      <c r="J104" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="38" t="s">
+      <c r="A105" s="22" t="s">
         <v>1354</v>
       </c>
-      <c r="B105" s="38">
+      <c r="B105" s="22">
         <v>406</v>
       </c>
-      <c r="C105" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D105" s="38" t="s">
+      <c r="C105" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D105" s="22" t="s">
         <v>1847</v>
       </c>
-      <c r="E105" s="34" t="s">
+      <c r="E105" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F105" s="38" t="s">
+      <c r="F105" s="22" t="s">
         <v>1877</v>
       </c>
-      <c r="G105" s="34">
+      <c r="G105" s="22">
         <v>4</v>
       </c>
-      <c r="H105" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I105" s="34">
-        <v>1</v>
-      </c>
-      <c r="J105" s="34" t="s">
+      <c r="H105" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I105" s="22">
+        <v>1</v>
+      </c>
+      <c r="J105" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="38" t="s">
+      <c r="A106" s="22" t="s">
         <v>1355</v>
       </c>
-      <c r="B106" s="38">
+      <c r="B106" s="22">
         <v>20</v>
       </c>
-      <c r="C106" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D106" s="38" t="s">
+      <c r="C106" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D106" s="22" t="s">
         <v>1879</v>
       </c>
-      <c r="E106" s="34" t="s">
+      <c r="E106" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F106" s="38" t="s">
+      <c r="F106" s="22" t="s">
         <v>1878</v>
       </c>
-      <c r="G106" s="34">
+      <c r="G106" s="22">
         <v>2</v>
       </c>
-      <c r="H106" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I106" s="34">
+      <c r="H106" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I106" s="22">
         <v>256</v>
       </c>
-      <c r="J106" s="34" t="s">
+      <c r="J106" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="38" t="s">
+      <c r="A107" s="22" t="s">
         <v>1356</v>
       </c>
-      <c r="B107" s="38">
+      <c r="B107" s="22">
         <v>33.6</v>
       </c>
-      <c r="C107" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D107" s="38" t="s">
+      <c r="C107" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D107" s="22" t="s">
         <v>1881</v>
       </c>
-      <c r="E107" s="34" t="s">
+      <c r="E107" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F107" s="38" t="s">
+      <c r="F107" s="22" t="s">
         <v>1880</v>
       </c>
-      <c r="G107" s="34">
+      <c r="G107" s="22">
         <v>8</v>
       </c>
-      <c r="H107" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I107" s="34">
+      <c r="H107" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I107" s="22">
         <v>3</v>
       </c>
-      <c r="J107" s="34" t="s">
+      <c r="J107" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.75">
-      <c r="A108" s="38" t="s">
+      <c r="A108" s="22" t="s">
         <v>1357</v>
       </c>
-      <c r="B108" s="38">
+      <c r="B108" s="22">
         <v>11.1</v>
       </c>
-      <c r="C108" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D108" s="43" t="s">
+      <c r="C108" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D108" s="28" t="s">
         <v>1883</v>
       </c>
-      <c r="E108" s="34" t="s">
+      <c r="E108" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F108" s="38" t="s">
+      <c r="F108" s="22" t="s">
         <v>1882</v>
       </c>
-      <c r="G108" s="34">
+      <c r="G108" s="22">
         <v>2</v>
       </c>
-      <c r="H108" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I108" s="34">
+      <c r="H108" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I108" s="22">
         <v>256</v>
       </c>
-      <c r="J108" s="34" t="s">
+      <c r="J108" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="38" t="s">
+      <c r="A109" s="22" t="s">
         <v>1358</v>
       </c>
-      <c r="B109" s="38">
+      <c r="B109" s="22">
         <v>8.4</v>
       </c>
-      <c r="C109" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D109" s="38" t="s">
+      <c r="C109" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D109" s="22" t="s">
         <v>1847</v>
       </c>
-      <c r="E109" s="34" t="s">
+      <c r="E109" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F109" s="38" t="s">
+      <c r="F109" s="22" t="s">
         <v>1884</v>
       </c>
-      <c r="G109" s="34">
+      <c r="G109" s="22">
         <v>4</v>
       </c>
-      <c r="H109" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I109" s="34">
-        <v>1</v>
-      </c>
-      <c r="J109" s="34" t="s">
+      <c r="H109" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I109" s="22">
+        <v>1</v>
+      </c>
+      <c r="J109" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="38" t="s">
+      <c r="A110" s="22" t="s">
         <v>1359</v>
       </c>
-      <c r="B110" s="38">
+      <c r="B110" s="22">
         <v>7.7</v>
       </c>
-      <c r="C110" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D110" s="38">
+      <c r="C110" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D110" s="22">
         <v>2</v>
       </c>
-      <c r="E110" s="34" t="s">
+      <c r="E110" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F110" s="38" t="s">
+      <c r="F110" s="22" t="s">
         <v>1885</v>
       </c>
-      <c r="G110" s="34">
+      <c r="G110" s="22">
         <v>2</v>
       </c>
-      <c r="H110" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I110" s="34">
+      <c r="H110" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I110" s="22">
         <v>512</v>
       </c>
-      <c r="J110" s="34" t="s">
+      <c r="J110" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="38" t="s">
+      <c r="A111" s="22" t="s">
         <v>1360</v>
       </c>
-      <c r="B111" s="38">
+      <c r="B111" s="22">
         <v>3.8</v>
       </c>
-      <c r="C111" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D111" s="38" t="s">
+      <c r="C111" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D111" s="22" t="s">
         <v>1823</v>
       </c>
-      <c r="E111" s="34" t="s">
+      <c r="E111" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F111" s="38" t="s">
+      <c r="F111" s="22" t="s">
         <v>1886</v>
       </c>
-      <c r="G111" s="34">
+      <c r="G111" s="22">
         <v>512</v>
       </c>
-      <c r="H111" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I111" s="34">
+      <c r="H111" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I111" s="22">
         <v>64</v>
       </c>
-      <c r="J111" s="34" t="s">
+      <c r="J111" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="38" t="s">
+      <c r="A112" s="22" t="s">
         <v>1887</v>
       </c>
-      <c r="B112" s="38">
+      <c r="B112" s="22">
         <v>642</v>
       </c>
-      <c r="C112" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D112" s="38">
+      <c r="C112" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D112" s="22">
         <v>568</v>
       </c>
-      <c r="E112" s="34" t="s">
+      <c r="E112" s="22" t="s">
         <v>1616</v>
       </c>
-      <c r="F112" s="38" t="s">
+      <c r="F112" s="22" t="s">
         <v>1902</v>
       </c>
-      <c r="G112" s="34">
+      <c r="G112" s="22">
         <v>150</v>
       </c>
-      <c r="H112" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I112" s="34">
+      <c r="H112" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I112" s="22">
         <v>16</v>
       </c>
-      <c r="J112" s="34" t="s">
+      <c r="J112" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="38" t="s">
+      <c r="A113" s="22" t="s">
         <v>1888</v>
       </c>
-      <c r="B113" s="38">
+      <c r="B113" s="22">
         <v>643</v>
       </c>
-      <c r="C113" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D113" s="38" t="s">
+      <c r="C113" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D113" s="22" t="s">
         <v>1904</v>
       </c>
-      <c r="E113" s="34" t="s">
+      <c r="E113" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F113" s="38" t="s">
+      <c r="F113" s="22" t="s">
         <v>1903</v>
       </c>
-      <c r="G113" s="34">
+      <c r="G113" s="22">
         <v>1.5</v>
       </c>
-      <c r="H113" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I113" s="34">
+      <c r="H113" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I113" s="22">
         <v>256</v>
       </c>
-      <c r="J113" s="34" t="s">
+      <c r="J113" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="38" t="s">
+      <c r="A114" s="22" t="s">
         <v>1889</v>
       </c>
-      <c r="B114" s="38">
+      <c r="B114" s="22">
         <v>8.6</v>
       </c>
-      <c r="C114" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D114" s="38" t="s">
+      <c r="C114" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D114" s="22" t="s">
         <v>1904</v>
       </c>
-      <c r="E114" s="34" t="s">
+      <c r="E114" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F114" s="38" t="s">
+      <c r="F114" s="22" t="s">
         <v>1903</v>
       </c>
-      <c r="G114" s="34">
+      <c r="G114" s="22">
         <v>1.5</v>
       </c>
-      <c r="H114" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I114" s="34">
+      <c r="H114" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I114" s="22">
         <v>256</v>
       </c>
-      <c r="J114" s="34" t="s">
+      <c r="J114" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="38" t="s">
+      <c r="A115" s="22" t="s">
         <v>1890</v>
       </c>
-      <c r="B115" s="38">
+      <c r="B115" s="22">
         <v>679</v>
       </c>
-      <c r="C115" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D115" s="38" t="s">
+      <c r="C115" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D115" s="22" t="s">
         <v>1905</v>
       </c>
-      <c r="E115" s="34" t="s">
+      <c r="E115" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F115" s="38" t="s">
+      <c r="F115" s="22" t="s">
         <v>1845</v>
       </c>
-      <c r="G115" s="34">
+      <c r="G115" s="22">
         <v>8</v>
       </c>
-      <c r="H115" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I115" s="34">
+      <c r="H115" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I115" s="22">
         <v>4</v>
       </c>
-      <c r="J115" s="34" t="s">
+      <c r="J115" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="38" t="s">
+      <c r="A116" s="22" t="s">
         <v>1891</v>
       </c>
-      <c r="B116" s="38">
+      <c r="B116" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C116" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D116" s="38" t="s">
+      <c r="C116" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D116" s="22" t="s">
         <v>1879</v>
       </c>
-      <c r="E116" s="34" t="s">
+      <c r="E116" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F116" s="38" t="s">
+      <c r="F116" s="22" t="s">
         <v>1826</v>
       </c>
-      <c r="G116" s="34">
+      <c r="G116" s="22">
         <v>256</v>
       </c>
-      <c r="H116" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I116" s="34">
+      <c r="H116" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I116" s="22">
         <v>32</v>
       </c>
-      <c r="J116" s="34" t="s">
+      <c r="J116" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="38" t="s">
+      <c r="A117" s="22" t="s">
         <v>1892</v>
       </c>
-      <c r="B117" s="38">
+      <c r="B117" s="22">
         <v>6.9</v>
       </c>
-      <c r="C117" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D117" s="38" t="s">
+      <c r="C117" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D117" s="22" t="s">
         <v>1906</v>
       </c>
-      <c r="E117" s="34" t="s">
+      <c r="E117" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F117" s="38" t="s">
+      <c r="F117" s="22" t="s">
         <v>1845</v>
       </c>
-      <c r="G117" s="34">
+      <c r="G117" s="22">
         <v>4</v>
       </c>
-      <c r="H117" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I117" s="34">
-        <v>1</v>
-      </c>
-      <c r="J117" s="34" t="s">
+      <c r="H117" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I117" s="22">
+        <v>1</v>
+      </c>
+      <c r="J117" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="38" t="s">
+      <c r="A118" s="22" t="s">
         <v>1893</v>
       </c>
-      <c r="B118" s="38">
+      <c r="B118" s="22">
         <v>29.5</v>
       </c>
-      <c r="C118" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D118" s="38" t="s">
+      <c r="C118" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D118" s="22" t="s">
         <v>1907</v>
       </c>
-      <c r="E118" s="34" t="s">
+      <c r="E118" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F118" s="38" t="s">
+      <c r="F118" s="22" t="s">
         <v>1845</v>
       </c>
-      <c r="G118" s="34">
+      <c r="G118" s="22">
         <v>6</v>
       </c>
-      <c r="H118" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I118" s="34">
+      <c r="H118" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I118" s="22">
         <v>2</v>
       </c>
-      <c r="J118" s="34" t="s">
+      <c r="J118" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="38" t="s">
+      <c r="A119" s="22" t="s">
         <v>1894</v>
       </c>
-      <c r="B119" s="38">
+      <c r="B119" s="22">
         <v>6.1</v>
       </c>
-      <c r="C119" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D119" s="38">
+      <c r="C119" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D119" s="22">
         <v>2</v>
       </c>
-      <c r="E119" s="34" t="s">
+      <c r="E119" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F119" s="38" t="s">
+      <c r="F119" s="22" t="s">
         <v>1908</v>
       </c>
-      <c r="G119" s="34">
-        <v>1</v>
-      </c>
-      <c r="H119" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I119" s="34">
+      <c r="G119" s="22">
+        <v>1</v>
+      </c>
+      <c r="H119" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I119" s="22">
         <v>256</v>
       </c>
-      <c r="J119" s="34" t="s">
+      <c r="J119" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="38" t="s">
+      <c r="A120" s="22" t="s">
         <v>1895</v>
       </c>
-      <c r="B120" s="38">
+      <c r="B120" s="22">
         <v>9.6</v>
       </c>
-      <c r="C120" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D120" s="38" t="s">
+      <c r="C120" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D120" s="22" t="s">
         <v>1909</v>
       </c>
-      <c r="E120" s="34" t="s">
+      <c r="E120" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F120" s="38" t="s">
+      <c r="F120" s="22" t="s">
         <v>1872</v>
       </c>
-      <c r="G120" s="34">
+      <c r="G120" s="22">
         <v>4</v>
       </c>
-      <c r="H120" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I120" s="34">
+      <c r="H120" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I120" s="22">
         <v>512</v>
       </c>
-      <c r="J120" s="34" t="s">
+      <c r="J120" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="15.75">
-      <c r="A121" s="38" t="s">
+      <c r="A121" s="22" t="s">
         <v>1896</v>
       </c>
-      <c r="B121" s="38">
+      <c r="B121" s="22">
         <v>7.2</v>
       </c>
-      <c r="C121" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D121" s="44" t="s">
+      <c r="C121" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D121" s="29" t="s">
         <v>1911</v>
       </c>
-      <c r="E121" s="34" t="s">
+      <c r="E121" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F121" s="38" t="s">
+      <c r="F121" s="22" t="s">
         <v>1910</v>
       </c>
-      <c r="G121" s="34">
+      <c r="G121" s="22">
         <v>2</v>
       </c>
-      <c r="H121" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I121" s="34">
+      <c r="H121" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I121" s="22">
         <v>512</v>
       </c>
-      <c r="J121" s="34" t="s">
+      <c r="J121" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="38" t="s">
+      <c r="A122" s="22" t="s">
         <v>1897</v>
       </c>
-      <c r="B122" s="38">
+      <c r="B122" s="22">
         <v>5.8</v>
       </c>
-      <c r="C122" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D122" s="38" t="s">
+      <c r="C122" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D122" s="22" t="s">
         <v>1913</v>
       </c>
-      <c r="E122" s="34" t="s">
+      <c r="E122" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F122" s="38" t="s">
+      <c r="F122" s="22" t="s">
         <v>1912</v>
       </c>
-      <c r="G122" s="34">
+      <c r="G122" s="22">
         <v>1.5</v>
       </c>
-      <c r="H122" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I122" s="34">
+      <c r="H122" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I122" s="22">
         <v>256</v>
       </c>
-      <c r="J122" s="34" t="s">
+      <c r="J122" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="38" t="s">
+      <c r="A123" s="22" t="s">
         <v>1898</v>
       </c>
-      <c r="B123" s="38">
+      <c r="B123" s="22">
         <v>5.2</v>
       </c>
-      <c r="C123" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D123" s="38" t="s">
+      <c r="C123" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D123" s="22" t="s">
         <v>1915</v>
       </c>
-      <c r="E123" s="34" t="s">
+      <c r="E123" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F123" s="38" t="s">
+      <c r="F123" s="22" t="s">
         <v>1914</v>
       </c>
-      <c r="G123" s="34">
+      <c r="G123" s="22">
         <v>512</v>
       </c>
-      <c r="H123" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I123" s="34">
+      <c r="H123" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I123" s="22">
         <v>128</v>
       </c>
-      <c r="J123" s="34" t="s">
+      <c r="J123" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="38" t="s">
+      <c r="A124" s="22" t="s">
         <v>1899</v>
       </c>
-      <c r="B124" s="38">
+      <c r="B124" s="22">
         <v>1.3</v>
       </c>
-      <c r="C124" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D124" s="38">
+      <c r="C124" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D124" s="22">
         <v>1133</v>
       </c>
-      <c r="E124" s="34" t="s">
+      <c r="E124" s="22" t="s">
         <v>1616</v>
       </c>
-      <c r="F124" s="38" t="s">
+      <c r="F124" s="22" t="s">
         <v>1916</v>
       </c>
-      <c r="G124" s="34">
+      <c r="G124" s="22">
         <v>256</v>
       </c>
-      <c r="H124" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I124" s="34">
+      <c r="H124" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I124" s="22">
         <v>128</v>
       </c>
-      <c r="J124" s="34" t="s">
+      <c r="J124" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="38" t="s">
+      <c r="A125" s="22" t="s">
         <v>1900</v>
       </c>
-      <c r="B125" s="38">
+      <c r="B125" s="22">
         <v>1.3</v>
       </c>
-      <c r="C125" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D125" s="38">
+      <c r="C125" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D125" s="22">
         <v>933</v>
       </c>
-      <c r="E125" s="34" t="s">
+      <c r="E125" s="22" t="s">
         <v>1616</v>
       </c>
-      <c r="F125" s="38" t="s">
+      <c r="F125" s="22" t="s">
         <v>1917</v>
       </c>
-      <c r="G125" s="34">
+      <c r="G125" s="22">
         <v>256</v>
       </c>
-      <c r="H125" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I125" s="34">
+      <c r="H125" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I125" s="22">
         <v>32</v>
       </c>
-      <c r="J125" s="34" t="s">
+      <c r="J125" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" s="34" t="s">
+      <c r="A126" s="22" t="s">
         <v>1901</v>
       </c>
-      <c r="B126" s="38">
+      <c r="B126" s="22">
         <v>650</v>
       </c>
-      <c r="C126" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D126" s="38">
-        <v>1</v>
-      </c>
-      <c r="E126" s="34" t="s">
+      <c r="C126" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D126" s="22">
+        <v>1</v>
+      </c>
+      <c r="E126" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F126" s="38" t="s">
+      <c r="F126" s="22" t="s">
         <v>1270</v>
       </c>
-      <c r="G126" s="34">
+      <c r="G126" s="22">
         <v>512</v>
       </c>
-      <c r="H126" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I126" s="34">
+      <c r="H126" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I126" s="22">
         <v>128</v>
       </c>
-      <c r="J126" s="34" t="s">
+      <c r="J126" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="38" t="s">
+      <c r="A127" s="22" t="s">
         <v>1918</v>
       </c>
-      <c r="B127" s="38">
+      <c r="B127" s="22">
         <v>5.6</v>
       </c>
-      <c r="C127" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D127" s="38">
+      <c r="C127" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D127" s="22">
         <v>4</v>
       </c>
-      <c r="E127" s="34" t="s">
+      <c r="E127" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F127" s="38" t="s">
+      <c r="F127" s="22" t="s">
         <v>1952</v>
       </c>
-      <c r="G127" s="34">
+      <c r="G127" s="22">
         <v>8</v>
       </c>
-      <c r="H127" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I127" s="34">
+      <c r="H127" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I127" s="22">
         <v>2</v>
       </c>
-      <c r="J127" s="34" t="s">
+      <c r="J127" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="38" t="s">
+      <c r="A128" s="22" t="s">
         <v>524</v>
       </c>
-      <c r="B128" s="38">
+      <c r="B128" s="22">
         <v>2.7</v>
       </c>
-      <c r="C128" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D128" s="38">
-        <v>1</v>
-      </c>
-      <c r="E128" s="34" t="s">
+      <c r="C128" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D128" s="22">
+        <v>1</v>
+      </c>
+      <c r="E128" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F128" s="38" t="s">
+      <c r="F128" s="22" t="s">
         <v>1270</v>
       </c>
-      <c r="G128" s="34">
+      <c r="G128" s="22">
         <v>512</v>
       </c>
-      <c r="H128" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I128" s="34">
+      <c r="H128" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I128" s="22">
         <v>64</v>
       </c>
-      <c r="J128" s="34" t="s">
+      <c r="J128" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="38" t="s">
+      <c r="A129" s="22" t="s">
         <v>1919</v>
       </c>
-      <c r="B129" s="38">
+      <c r="B129" s="22">
         <v>591</v>
       </c>
-      <c r="C129" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D129" s="38">
-        <v>1</v>
-      </c>
-      <c r="E129" s="34" t="s">
+      <c r="C129" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D129" s="22">
+        <v>1</v>
+      </c>
+      <c r="E129" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F129" s="38" t="s">
+      <c r="F129" s="22" t="s">
         <v>1953</v>
       </c>
-      <c r="G129" s="34">
+      <c r="G129" s="22">
         <v>32</v>
       </c>
-      <c r="H129" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I129" s="34">
+      <c r="H129" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I129" s="22">
         <v>32</v>
       </c>
-      <c r="J129" s="34" t="s">
+      <c r="J129" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="38" t="s">
+      <c r="A130" s="22" t="s">
         <v>1920</v>
       </c>
-      <c r="B130" s="38">
+      <c r="B130" s="22">
         <v>7.1</v>
       </c>
-      <c r="C130" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D130" s="38" t="s">
+      <c r="C130" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D130" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E130" s="34" t="s">
+      <c r="E130" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F130" s="38" t="s">
+      <c r="F130" s="22" t="s">
         <v>1954</v>
       </c>
-      <c r="G130" s="34">
-        <v>1</v>
-      </c>
-      <c r="H130" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I130" s="34">
+      <c r="G130" s="22">
+        <v>1</v>
+      </c>
+      <c r="H130" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I130" s="22">
         <v>128</v>
       </c>
-      <c r="J130" s="34" t="s">
+      <c r="J130" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" s="38" t="s">
+      <c r="A131" s="22" t="s">
         <v>1921</v>
       </c>
-      <c r="B131" s="38">
+      <c r="B131" s="22">
         <v>7.7</v>
       </c>
-      <c r="C131" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D131" s="38" t="s">
+      <c r="C131" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D131" s="22" t="s">
         <v>1956</v>
       </c>
-      <c r="E131" s="34" t="s">
+      <c r="E131" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F131" s="38" t="s">
+      <c r="F131" s="22" t="s">
         <v>1955</v>
       </c>
-      <c r="G131" s="34">
-        <v>1</v>
-      </c>
-      <c r="H131" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I131" s="34">
+      <c r="G131" s="22">
+        <v>1</v>
+      </c>
+      <c r="H131" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I131" s="22">
         <v>256</v>
       </c>
-      <c r="J131" s="34" t="s">
+      <c r="J131" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="38" t="s">
+      <c r="A132" s="22" t="s">
         <v>1415</v>
       </c>
-      <c r="B132" s="38">
+      <c r="B132" s="22">
         <v>7.9</v>
       </c>
-      <c r="C132" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D132" s="38" t="s">
+      <c r="C132" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D132" s="22" t="s">
         <v>1958</v>
       </c>
-      <c r="E132" s="34" t="s">
+      <c r="E132" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F132" s="38" t="s">
+      <c r="F132" s="22" t="s">
         <v>1957</v>
       </c>
-      <c r="G132" s="34">
+      <c r="G132" s="22">
         <v>2</v>
       </c>
-      <c r="H132" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I132" s="34">
+      <c r="H132" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I132" s="22">
         <v>256</v>
       </c>
-      <c r="J132" s="34" t="s">
+      <c r="J132" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="38" t="s">
+      <c r="A133" s="22" t="s">
         <v>1922</v>
       </c>
-      <c r="B133" s="38">
+      <c r="B133" s="22">
         <v>638</v>
       </c>
-      <c r="C133" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D133" s="38">
+      <c r="C133" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D133" s="22">
         <v>233</v>
       </c>
-      <c r="E133" s="34" t="s">
+      <c r="E133" s="22" t="s">
         <v>1616</v>
       </c>
-      <c r="F133" s="38" t="s">
+      <c r="F133" s="22" t="s">
         <v>1959</v>
       </c>
-      <c r="G133" s="34">
+      <c r="G133" s="22">
         <v>64</v>
       </c>
-      <c r="H133" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I133" s="34">
+      <c r="H133" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I133" s="22">
         <v>32</v>
       </c>
-      <c r="J133" s="34" t="s">
+      <c r="J133" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="134" spans="1:10">
-      <c r="A134" s="38" t="s">
+      <c r="A134" s="22" t="s">
         <v>1923</v>
       </c>
-      <c r="B134" s="38">
+      <c r="B134" s="22">
         <v>6.9</v>
       </c>
-      <c r="C134" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D134" s="38">
+      <c r="C134" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D134" s="22">
         <v>3</v>
       </c>
-      <c r="E134" s="34" t="s">
+      <c r="E134" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F134" s="38" t="s">
+      <c r="F134" s="22" t="s">
         <v>1960</v>
       </c>
-      <c r="G134" s="34">
-        <v>1</v>
-      </c>
-      <c r="H134" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I134" s="34">
+      <c r="G134" s="22">
+        <v>1</v>
+      </c>
+      <c r="H134" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I134" s="22">
         <v>256</v>
       </c>
-      <c r="J134" s="34" t="s">
+      <c r="J134" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="38" t="s">
+      <c r="A135" s="22" t="s">
         <v>1677</v>
       </c>
-      <c r="B135" s="38">
+      <c r="B135" s="22">
         <v>651</v>
       </c>
-      <c r="C135" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D135" s="38" t="s">
+      <c r="C135" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D135" s="22" t="s">
         <v>1815</v>
       </c>
-      <c r="E135" s="34" t="s">
+      <c r="E135" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F135" s="38" t="s">
+      <c r="F135" s="22" t="s">
         <v>1961</v>
       </c>
-      <c r="G135" s="34">
+      <c r="G135" s="22">
         <v>2</v>
       </c>
-      <c r="H135" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I135" s="34">
-        <v>1</v>
-      </c>
-      <c r="J135" s="34" t="s">
+      <c r="H135" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I135" s="22">
+        <v>1</v>
+      </c>
+      <c r="J135" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="38" t="s">
+      <c r="A136" s="22" t="s">
         <v>1924</v>
       </c>
-      <c r="B136" s="38">
+      <c r="B136" s="22">
         <v>1.2</v>
       </c>
-      <c r="C136" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D136" s="38" t="s">
+      <c r="C136" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D136" s="22" t="s">
         <v>1906</v>
       </c>
-      <c r="E136" s="34" t="s">
+      <c r="E136" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F136" s="38" t="s">
+      <c r="F136" s="22" t="s">
         <v>1962</v>
       </c>
-      <c r="G136" s="34">
+      <c r="G136" s="22">
         <v>8</v>
       </c>
-      <c r="H136" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I136" s="34">
+      <c r="H136" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I136" s="22">
         <v>2</v>
       </c>
-      <c r="J136" s="34" t="s">
+      <c r="J136" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" s="38" t="s">
+      <c r="A137" s="22" t="s">
         <v>537</v>
       </c>
-      <c r="B137" s="38">
+      <c r="B137" s="22">
         <v>3.3</v>
       </c>
-      <c r="C137" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D137" s="38" t="s">
+      <c r="C137" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D137" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E137" s="34" t="s">
+      <c r="E137" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F137" s="38" t="s">
+      <c r="F137" s="22" t="s">
         <v>1963</v>
       </c>
-      <c r="G137" s="34">
+      <c r="G137" s="22">
         <v>2</v>
       </c>
-      <c r="H137" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I137" s="34">
+      <c r="H137" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I137" s="22">
         <v>512</v>
       </c>
-      <c r="J137" s="34" t="s">
+      <c r="J137" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="15.75">
-      <c r="A138" s="38" t="s">
+      <c r="A138" s="22" t="s">
         <v>1925</v>
       </c>
-      <c r="B138" s="38">
+      <c r="B138" s="22">
         <v>7.4</v>
       </c>
-      <c r="C138" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D138" s="38">
+      <c r="C138" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D138" s="22">
         <v>2</v>
       </c>
-      <c r="E138" s="34" t="s">
+      <c r="E138" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F138" s="43" t="s">
+      <c r="F138" s="28" t="s">
         <v>1964</v>
       </c>
-      <c r="G138" s="34">
-        <v>1</v>
-      </c>
-      <c r="H138" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I138" s="34">
+      <c r="G138" s="22">
+        <v>1</v>
+      </c>
+      <c r="H138" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I138" s="22">
         <v>512</v>
       </c>
-      <c r="J138" s="34" t="s">
+      <c r="J138" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" s="38" t="s">
+      <c r="A139" s="22" t="s">
         <v>1247</v>
       </c>
-      <c r="B139" s="38">
+      <c r="B139" s="22">
         <v>19.7</v>
       </c>
-      <c r="C139" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D139" s="38" t="s">
+      <c r="C139" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D139" s="22" t="s">
         <v>1835</v>
       </c>
-      <c r="E139" s="34" t="s">
+      <c r="E139" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F139" s="38" t="s">
+      <c r="F139" s="22" t="s">
         <v>1965</v>
       </c>
-      <c r="G139" s="34">
+      <c r="G139" s="22">
         <v>2</v>
       </c>
-      <c r="H139" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I139" s="34">
+      <c r="H139" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I139" s="22">
         <v>512</v>
       </c>
-      <c r="J139" s="34" t="s">
+      <c r="J139" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="38" t="s">
+      <c r="A140" s="22" t="s">
         <v>1926</v>
       </c>
-      <c r="B140" s="38">
+      <c r="B140" s="22">
         <v>7.4</v>
       </c>
-      <c r="C140" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D140" s="38" t="s">
+      <c r="C140" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D140" s="22" t="s">
         <v>1906</v>
       </c>
-      <c r="E140" s="34" t="s">
+      <c r="E140" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F140" s="38" t="s">
+      <c r="F140" s="22" t="s">
         <v>1966</v>
       </c>
-      <c r="G140" s="34">
+      <c r="G140" s="22">
         <v>4</v>
       </c>
-      <c r="H140" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I140" s="34">
-        <v>1</v>
-      </c>
-      <c r="J140" s="34" t="s">
+      <c r="H140" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I140" s="22">
+        <v>1</v>
+      </c>
+      <c r="J140" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="141" spans="1:10">
-      <c r="A141" s="38" t="s">
+      <c r="A141" s="22" t="s">
         <v>1249</v>
       </c>
-      <c r="B141" s="38">
+      <c r="B141" s="22">
         <v>8</v>
       </c>
-      <c r="C141" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D141" s="38" t="s">
+      <c r="C141" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D141" s="22" t="s">
         <v>1815</v>
       </c>
-      <c r="E141" s="34" t="s">
+      <c r="E141" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F141" s="38" t="s">
+      <c r="F141" s="22" t="s">
         <v>1270</v>
       </c>
-      <c r="G141" s="34">
+      <c r="G141" s="22">
         <v>2</v>
       </c>
-      <c r="H141" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I141" s="34">
+      <c r="H141" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I141" s="22">
         <v>256</v>
       </c>
-      <c r="J141" s="34" t="s">
+      <c r="J141" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="142" spans="1:10">
-      <c r="A142" s="38" t="s">
+      <c r="A142" s="22" t="s">
         <v>1927</v>
       </c>
-      <c r="B142" s="38">
+      <c r="B142" s="22">
         <v>3.5</v>
       </c>
-      <c r="C142" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D142" s="38" t="s">
+      <c r="C142" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D142" s="22" t="s">
         <v>1968</v>
       </c>
-      <c r="E142" s="34" t="s">
+      <c r="E142" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F142" s="38" t="s">
+      <c r="F142" s="22" t="s">
         <v>1967</v>
       </c>
-      <c r="G142" s="34">
-        <v>1</v>
-      </c>
-      <c r="H142" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I142" s="34">
+      <c r="G142" s="22">
+        <v>1</v>
+      </c>
+      <c r="H142" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I142" s="22">
         <v>256</v>
       </c>
-      <c r="J142" s="34" t="s">
+      <c r="J142" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" s="38" t="s">
+      <c r="A143" s="22" t="s">
         <v>1928</v>
       </c>
-      <c r="B143" s="38">
+      <c r="B143" s="22">
         <v>2.4</v>
       </c>
-      <c r="C143" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D143" s="38" t="s">
+      <c r="C143" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D143" s="22" t="s">
         <v>1852</v>
       </c>
-      <c r="E143" s="34" t="s">
+      <c r="E143" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F143" s="38" t="s">
+      <c r="F143" s="22" t="s">
         <v>1826</v>
       </c>
-      <c r="G143" s="34">
+      <c r="G143" s="22">
         <v>256</v>
       </c>
-      <c r="H143" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I143" s="34">
+      <c r="H143" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I143" s="22">
         <v>128</v>
       </c>
-      <c r="J143" s="34" t="s">
+      <c r="J143" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="144" spans="1:10">
-      <c r="A144" s="38" t="s">
+      <c r="A144" s="22" t="s">
         <v>1929</v>
       </c>
-      <c r="B144" s="38">
+      <c r="B144" s="22">
         <v>2.7</v>
       </c>
-      <c r="C144" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D144" s="38">
+      <c r="C144" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D144" s="22">
         <v>2</v>
       </c>
-      <c r="E144" s="34" t="s">
+      <c r="E144" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F144" s="38" t="s">
+      <c r="F144" s="22" t="s">
         <v>1856</v>
       </c>
-      <c r="G144" s="34">
+      <c r="G144" s="22">
         <v>512</v>
       </c>
-      <c r="H144" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I144" s="34">
+      <c r="H144" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I144" s="22">
         <v>64</v>
       </c>
-      <c r="J144" s="34" t="s">
+      <c r="J144" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="145" spans="1:10">
-      <c r="A145" s="38" t="s">
+      <c r="A145" s="22" t="s">
         <v>1930</v>
       </c>
-      <c r="B145" s="38">
+      <c r="B145" s="22">
         <v>2</v>
       </c>
-      <c r="C145" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D145" s="38">
-        <v>1</v>
-      </c>
-      <c r="E145" s="34" t="s">
+      <c r="C145" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D145" s="22">
+        <v>1</v>
+      </c>
+      <c r="E145" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F145" s="38" t="s">
+      <c r="F145" s="22" t="s">
         <v>1856</v>
       </c>
-      <c r="G145" s="34">
+      <c r="G145" s="22">
         <v>192</v>
       </c>
-      <c r="H145" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I145" s="34">
+      <c r="H145" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I145" s="22">
         <v>32</v>
       </c>
-      <c r="J145" s="34" t="s">
+      <c r="J145" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="146" spans="1:10">
-      <c r="A146" s="38" t="s">
+      <c r="A146" s="22" t="s">
         <v>1931</v>
       </c>
-      <c r="B146" s="38">
+      <c r="B146" s="22">
         <v>828</v>
       </c>
-      <c r="C146" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D146" s="38">
+      <c r="C146" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D146" s="22">
         <v>800</v>
       </c>
-      <c r="E146" s="34" t="s">
+      <c r="E146" s="22" t="s">
         <v>1616</v>
       </c>
-      <c r="F146" s="38" t="s">
+      <c r="F146" s="22" t="s">
         <v>1969</v>
       </c>
-      <c r="G146" s="34">
+      <c r="G146" s="22">
         <v>256</v>
       </c>
-      <c r="H146" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I146" s="34">
+      <c r="H146" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I146" s="22">
         <v>64</v>
       </c>
-      <c r="J146" s="34" t="s">
+      <c r="J146" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="147" spans="1:10">
-      <c r="A147" s="38" t="s">
+      <c r="A147" s="22" t="s">
         <v>1932</v>
       </c>
-      <c r="B147" s="38">
+      <c r="B147" s="22">
         <v>16.3</v>
       </c>
-      <c r="C147" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D147" s="38">
+      <c r="C147" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D147" s="22">
         <v>4</v>
       </c>
-      <c r="E147" s="34" t="s">
+      <c r="E147" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F147" s="38" t="s">
+      <c r="F147" s="22" t="s">
         <v>1845</v>
       </c>
-      <c r="G147" s="34">
+      <c r="G147" s="22">
         <v>6</v>
       </c>
-      <c r="H147" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I147" s="34">
+      <c r="H147" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I147" s="22">
         <v>2</v>
       </c>
-      <c r="J147" s="34" t="s">
+      <c r="J147" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="148" spans="1:10">
-      <c r="A148" s="38" t="s">
+      <c r="A148" s="22" t="s">
         <v>1933</v>
       </c>
-      <c r="B148" s="38">
+      <c r="B148" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C148" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D148" s="38">
-        <v>1</v>
-      </c>
-      <c r="E148" s="34" t="s">
+      <c r="C148" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D148" s="22">
+        <v>1</v>
+      </c>
+      <c r="E148" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F148" s="38" t="s">
+      <c r="F148" s="22" t="s">
         <v>1826</v>
       </c>
-      <c r="G148" s="34">
+      <c r="G148" s="22">
         <v>256</v>
       </c>
-      <c r="H148" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I148" s="34">
+      <c r="H148" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I148" s="22">
         <v>32</v>
       </c>
-      <c r="J148" s="34" t="s">
+      <c r="J148" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="149" spans="1:10">
-      <c r="A149" s="38" t="s">
+      <c r="A149" s="22" t="s">
         <v>1934</v>
       </c>
-      <c r="B149" s="38">
+      <c r="B149" s="22">
         <v>524</v>
       </c>
-      <c r="C149" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D149" s="38" t="s">
+      <c r="C149" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D149" s="22" t="s">
         <v>1852</v>
       </c>
-      <c r="E149" s="34" t="s">
+      <c r="E149" s="22" t="s">
         <v>1617</v>
       </c>
-      <c r="F149" s="38" t="s">
+      <c r="F149" s="22" t="s">
         <v>1970</v>
       </c>
-      <c r="G149" s="34">
-        <v>1</v>
-      </c>
-      <c r="H149" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I149" s="34">
+      <c r="G149" s="22">
+        <v>1</v>
+      </c>
+      <c r="H149" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I149" s="22">
         <v>256</v>
       </c>
-      <c r="J149" s="34" t="s">
+      <c r="J149" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="150" spans="1:10">
-      <c r="A150" s="38" t="s">
+      <c r="A150" s="22" t="s">
         <v>1935</v>
       </c>
-      <c r="B150" s="38">
+      <c r="B150" s="22">
         <v>578</v>
       </c>
-      <c r="C150" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D150" s="38">
+      <c r="C150" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D150" s="22">
         <v>350</v>
       </c>
-      <c r="E150" s="34" t="s">
+      <c r="E150" s="22" t="s">
         <v>1616</v>
       </c>
-      <c r="F150" s="38" t="s">
+      <c r="F150" s="22" t="s">
         <v>1971</v>
       </c>
-      <c r="G150" s="34">
+      <c r="G150" s="22">
         <v>64</v>
       </c>
-      <c r="H150" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I150" s="34">
+      <c r="H150" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I150" s="22">
         <v>32</v>
       </c>
-      <c r="J150" s="34" t="s">
+      <c r="J150" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="151" spans="1:10">
-      <c r="A151" s="38" t="s">
+      <c r="A151" s="22" t="s">
         <v>1936</v>
       </c>
-      <c r="B151" s="38">
+      <c r="B151" s="22">
         <v>660</v>
       </c>
-      <c r="C151" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D151" s="38">
+      <c r="C151" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D151" s="22">
         <v>90</v>
       </c>
-      <c r="E151" s="34" t="s">
+      <c r="E151" s="22" t="s">
         <v>1616</v>
       </c>
-      <c r="F151" s="38" t="s">
+      <c r="F151" s="22" t="s">
         <v>1972</v>
       </c>
-      <c r="G151" s="34">
+      <c r="G151" s="22">
         <v>16</v>
       </c>
-      <c r="H151" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I151" s="34">
+      <c r="H151" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I151" s="22">
         <v>16</v>
       </c>
-      <c r="J151" s="34" t="s">
+      <c r="J151" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="152" spans="1:10">
-      <c r="A152" s="38" t="s">
+      <c r="A152" s="22" t="s">
         <v>1937</v>
       </c>
-      <c r="B152" s="38">
+      <c r="B152" s="22">
         <v>716</v>
       </c>
-      <c r="C152" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D152" s="38">
+      <c r="C152" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D152" s="22">
         <v>90</v>
       </c>
-      <c r="E152" s="34" t="s">
+      <c r="E152" s="22" t="s">
         <v>1616</v>
       </c>
-      <c r="F152" s="38" t="s">
+      <c r="F152" s="22" t="s">
         <v>1972</v>
       </c>
-      <c r="G152" s="34">
+      <c r="G152" s="22">
         <v>16</v>
       </c>
-      <c r="H152" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I152" s="34">
+      <c r="H152" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I152" s="22">
         <v>16</v>
       </c>
-      <c r="J152" s="34" t="s">
+      <c r="J152" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="153" spans="1:10">
-      <c r="A153" s="38" t="s">
+      <c r="A153" s="22" t="s">
         <v>1975</v>
       </c>
-      <c r="B153" s="28">
+      <c r="B153">
         <v>30</v>
       </c>
-      <c r="C153" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D153" s="28" t="s">
+      <c r="C153" t="s">
+        <v>76</v>
+      </c>
+      <c r="D153" t="s">
         <v>1974</v>
       </c>
-      <c r="E153" s="40" t="s">
+      <c r="E153" t="s">
         <v>1617</v>
       </c>
-      <c r="F153" s="28" t="s">
+      <c r="F153" t="s">
         <v>1973</v>
       </c>
-      <c r="G153" s="40">
+      <c r="G153">
         <v>2</v>
       </c>
-      <c r="H153" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="I153" s="40">
+      <c r="H153" t="s">
+        <v>76</v>
+      </c>
+      <c r="I153">
         <v>256</v>
       </c>
-      <c r="J153" s="40" t="s">
+      <c r="J153" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="154" spans="1:10">
-      <c r="A154" s="38" t="s">
+      <c r="A154" s="22" t="s">
         <v>1938</v>
       </c>
-      <c r="B154" s="28">
+      <c r="B154">
         <v>836</v>
       </c>
-      <c r="C154" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D154" s="28">
+      <c r="C154" t="s">
+        <v>91</v>
+      </c>
+      <c r="D154">
         <v>500</v>
       </c>
-      <c r="E154" s="40" t="s">
+      <c r="E154" t="s">
         <v>1616</v>
       </c>
-      <c r="F154" s="28" t="s">
+      <c r="F154" t="s">
         <v>1972</v>
       </c>
-      <c r="G154" s="40">
+      <c r="G154">
         <v>128</v>
       </c>
-      <c r="H154" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="I154" s="40">
+      <c r="H154" t="s">
+        <v>91</v>
+      </c>
+      <c r="I154">
         <v>16</v>
       </c>
-      <c r="J154" s="40" t="s">
+      <c r="J154" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="155" spans="1:10">
-      <c r="A155" s="38" t="s">
+      <c r="A155" s="22" t="s">
         <v>1939</v>
       </c>
-      <c r="B155" s="28">
+      <c r="B155">
         <v>757</v>
       </c>
-      <c r="C155" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D155" s="28" t="s">
+      <c r="C155" t="s">
+        <v>91</v>
+      </c>
+      <c r="D155" t="s">
         <v>1819</v>
       </c>
-      <c r="E155" s="40" t="s">
+      <c r="E155" t="s">
         <v>1617</v>
       </c>
-      <c r="F155" s="28" t="s">
+      <c r="F155" t="s">
         <v>1976</v>
       </c>
-      <c r="G155" s="40">
+      <c r="G155">
         <v>512</v>
       </c>
-      <c r="H155" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="I155" s="40">
+      <c r="H155" t="s">
+        <v>91</v>
+      </c>
+      <c r="I155">
         <v>64</v>
       </c>
-      <c r="J155" s="40" t="s">
+      <c r="J155" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="156" spans="1:10">
-      <c r="A156" s="38" t="s">
+      <c r="A156" s="22" t="s">
         <v>1940</v>
       </c>
-      <c r="B156" s="28">
+      <c r="B156">
         <v>1.2</v>
       </c>
-      <c r="C156" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D156" s="28" t="s">
+      <c r="C156" t="s">
+        <v>76</v>
+      </c>
+      <c r="D156" t="s">
         <v>1819</v>
       </c>
-      <c r="E156" s="40" t="s">
+      <c r="E156" t="s">
         <v>1617</v>
       </c>
-      <c r="F156" s="28" t="s">
+      <c r="F156" t="s">
         <v>1977</v>
       </c>
-      <c r="G156" s="40">
+      <c r="G156">
         <v>512</v>
       </c>
-      <c r="H156" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="I156" s="40">
+      <c r="H156" t="s">
+        <v>91</v>
+      </c>
+      <c r="I156">
         <v>64</v>
       </c>
-      <c r="J156" s="40" t="s">
+      <c r="J156" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="157" spans="1:10">
-      <c r="A157" s="38" t="s">
+      <c r="A157" s="22" t="s">
         <v>1941</v>
       </c>
-      <c r="B157" s="28">
+      <c r="B157">
         <v>3.7</v>
       </c>
-      <c r="C157" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D157" s="28">
+      <c r="C157" t="s">
+        <v>76</v>
+      </c>
+      <c r="D157">
         <v>2</v>
       </c>
-      <c r="E157" s="40" t="s">
+      <c r="E157" t="s">
         <v>1617</v>
       </c>
-      <c r="F157" s="28" t="s">
+      <c r="F157" t="s">
         <v>1954</v>
       </c>
-      <c r="G157" s="40">
+      <c r="G157">
         <v>2</v>
       </c>
-      <c r="H157" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="I157" s="40">
+      <c r="H157" t="s">
+        <v>76</v>
+      </c>
+      <c r="I157">
         <v>256</v>
       </c>
-      <c r="J157" s="40" t="s">
+      <c r="J157" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="158" spans="1:10">
-      <c r="A158" s="38" t="s">
+      <c r="A158" s="22" t="s">
         <v>1942</v>
       </c>
-      <c r="B158" s="28">
+      <c r="B158">
         <v>578</v>
       </c>
-      <c r="C158" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D158" s="28" t="s">
+      <c r="C158" t="s">
+        <v>91</v>
+      </c>
+      <c r="D158" t="s">
         <v>1979</v>
       </c>
-      <c r="E158" s="40" t="s">
+      <c r="E158" t="s">
         <v>1617</v>
       </c>
-      <c r="F158" s="28" t="s">
+      <c r="F158" t="s">
         <v>1978</v>
       </c>
-      <c r="G158" s="40">
+      <c r="G158">
         <v>2</v>
       </c>
-      <c r="H158" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="I158" s="40">
+      <c r="H158" t="s">
+        <v>76</v>
+      </c>
+      <c r="I158">
         <v>512</v>
       </c>
-      <c r="J158" s="40" t="s">
+      <c r="J158" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="159" spans="1:10">
-      <c r="A159" s="38" t="s">
+      <c r="A159" s="22" t="s">
         <v>1943</v>
       </c>
-      <c r="B159" s="28">
+      <c r="B159">
         <v>7.7</v>
       </c>
-      <c r="C159" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D159" s="28" t="s">
+      <c r="C159" t="s">
+        <v>76</v>
+      </c>
+      <c r="D159" t="s">
         <v>1979</v>
       </c>
-      <c r="E159" s="40" t="s">
+      <c r="E159" t="s">
         <v>1617</v>
       </c>
-      <c r="F159" s="28" t="s">
+      <c r="F159" t="s">
         <v>1872</v>
       </c>
-      <c r="G159" s="40">
-        <v>1</v>
-      </c>
-      <c r="H159" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="I159" s="40">
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159" t="s">
+        <v>76</v>
+      </c>
+      <c r="I159">
         <v>128</v>
       </c>
-      <c r="J159" s="40" t="s">
+      <c r="J159" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="160" spans="1:10">
-      <c r="A160" s="38" t="s">
+      <c r="A160" s="22" t="s">
         <v>1944</v>
       </c>
-      <c r="B160" s="28">
+      <c r="B160">
         <v>3.4</v>
       </c>
-      <c r="C160" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D160" s="28">
+      <c r="C160" t="s">
+        <v>76</v>
+      </c>
+      <c r="D160">
         <v>3</v>
       </c>
-      <c r="E160" s="40" t="s">
+      <c r="E160" t="s">
         <v>1617</v>
       </c>
-      <c r="F160" s="28" t="s">
+      <c r="F160" t="s">
         <v>1980</v>
       </c>
-      <c r="G160" s="40">
+      <c r="G160">
         <v>2</v>
       </c>
-      <c r="H160" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="I160" s="40">
+      <c r="H160" t="s">
+        <v>76</v>
+      </c>
+      <c r="I160">
         <v>256</v>
       </c>
-      <c r="J160" s="40" t="s">
+      <c r="J160" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="161" spans="1:10">
-      <c r="A161" s="38" t="s">
+      <c r="A161" s="22" t="s">
         <v>1945</v>
       </c>
-      <c r="B161" s="28">
+      <c r="B161">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C161" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D161" s="28" t="s">
+      <c r="C161" t="s">
+        <v>76</v>
+      </c>
+      <c r="D161" t="s">
         <v>1852</v>
       </c>
-      <c r="E161" s="40" t="s">
+      <c r="E161" t="s">
         <v>1617</v>
       </c>
-      <c r="F161" s="28" t="s">
+      <c r="F161" t="s">
         <v>1981</v>
       </c>
-      <c r="G161" s="40">
+      <c r="G161">
         <v>512</v>
       </c>
-      <c r="H161" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="I161" s="40">
+      <c r="H161" t="s">
+        <v>91</v>
+      </c>
+      <c r="I161">
         <v>64</v>
       </c>
-      <c r="J161" s="40" t="s">
+      <c r="J161" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="162" spans="1:10">
-      <c r="A162" s="38" t="s">
+      <c r="A162" s="22" t="s">
         <v>1946</v>
       </c>
-      <c r="B162" s="28">
+      <c r="B162">
         <v>701</v>
       </c>
-      <c r="C162" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D162" s="28" t="s">
+      <c r="C162" t="s">
+        <v>91</v>
+      </c>
+      <c r="D162" t="s">
         <v>1982</v>
       </c>
-      <c r="E162" s="40" t="s">
+      <c r="E162" t="s">
         <v>1617</v>
       </c>
-      <c r="F162" s="28" t="s">
+      <c r="F162" t="s">
         <v>1877</v>
       </c>
-      <c r="G162" s="40">
+      <c r="G162">
         <v>8</v>
       </c>
-      <c r="H162" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="I162" s="40">
+      <c r="H162" t="s">
+        <v>76</v>
+      </c>
+      <c r="I162">
         <v>2</v>
       </c>
-      <c r="J162" s="40" t="s">
+      <c r="J162" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="163" spans="1:10">
-      <c r="A163" s="38" t="s">
+      <c r="A163" s="22" t="s">
         <v>576</v>
       </c>
-      <c r="B163" s="28">
+      <c r="B163">
         <v>2.7</v>
       </c>
-      <c r="C163" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D163" s="28" t="s">
+      <c r="C163" t="s">
+        <v>76</v>
+      </c>
+      <c r="D163" t="s">
         <v>1879</v>
       </c>
-      <c r="E163" s="40" t="s">
+      <c r="E163" t="s">
         <v>1617</v>
       </c>
-      <c r="F163" s="28" t="s">
+      <c r="F163" t="s">
         <v>1983</v>
       </c>
-      <c r="G163" s="40">
+      <c r="G163">
         <v>256</v>
       </c>
-      <c r="H163" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="I163" s="40">
+      <c r="H163" t="s">
+        <v>91</v>
+      </c>
+      <c r="I163">
         <v>64</v>
       </c>
-      <c r="J163" s="40" t="s">
+      <c r="J163" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="164" spans="1:10">
-      <c r="A164" s="38" t="s">
+      <c r="A164" s="22" t="s">
         <v>1947</v>
       </c>
-      <c r="B164" s="28">
+      <c r="B164">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C164" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D164" s="28">
-        <v>1</v>
-      </c>
-      <c r="E164" s="40" t="s">
+      <c r="C164" t="s">
+        <v>76</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164" t="s">
         <v>1617</v>
       </c>
-      <c r="F164" s="28" t="s">
+      <c r="F164" t="s">
         <v>1984</v>
       </c>
-      <c r="G164" s="40">
+      <c r="G164">
         <v>256</v>
       </c>
-      <c r="H164" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="I164" s="40">
+      <c r="H164" t="s">
+        <v>91</v>
+      </c>
+      <c r="I164">
         <v>64</v>
       </c>
-      <c r="J164" s="40" t="s">
+      <c r="J164" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="165" spans="1:10">
-      <c r="A165" s="38" t="s">
+      <c r="A165" s="22" t="s">
         <v>1114</v>
       </c>
-      <c r="B165" s="28">
+      <c r="B165">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C165" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D165" s="28" t="s">
+      <c r="C165" t="s">
+        <v>76</v>
+      </c>
+      <c r="D165" t="s">
         <v>1835</v>
       </c>
-      <c r="E165" s="40" t="s">
+      <c r="E165" t="s">
         <v>1617</v>
       </c>
-      <c r="F165" s="28" t="s">
+      <c r="F165" t="s">
         <v>1882</v>
       </c>
-      <c r="G165" s="40">
-        <v>1</v>
-      </c>
-      <c r="H165" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="I165" s="40">
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165" t="s">
+        <v>76</v>
+      </c>
+      <c r="I165">
         <v>128</v>
       </c>
-      <c r="J165" s="40" t="s">
+      <c r="J165" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="166" spans="1:10">
-      <c r="A166" s="38" t="s">
+      <c r="A166" s="22" t="s">
         <v>1948</v>
       </c>
-      <c r="B166" s="27">
+      <c r="B166">
         <v>11.9</v>
       </c>
-      <c r="C166" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D166" s="28" t="s">
+      <c r="C166" t="s">
+        <v>76</v>
+      </c>
+      <c r="D166" t="s">
         <v>1985</v>
       </c>
-      <c r="E166" s="40" t="s">
+      <c r="E166" t="s">
         <v>1617</v>
       </c>
-      <c r="F166" s="28" t="s">
+      <c r="F166" t="s">
         <v>1872</v>
       </c>
-      <c r="G166" s="40">
-        <v>1</v>
-      </c>
-      <c r="H166" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="I166" s="40">
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166" t="s">
+        <v>76</v>
+      </c>
+      <c r="I166">
         <v>128</v>
       </c>
-      <c r="J166" s="40" t="s">
+      <c r="J166" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="167" spans="1:10">
-      <c r="A167" s="38" t="s">
+      <c r="A167" s="22" t="s">
         <v>1949</v>
       </c>
-      <c r="B167" s="27">
+      <c r="B167">
         <v>684</v>
       </c>
-      <c r="C167" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D167" s="28">
+      <c r="C167" t="s">
+        <v>91</v>
+      </c>
+      <c r="D167">
         <v>400</v>
       </c>
-      <c r="E167" s="40" t="s">
+      <c r="E167" t="s">
         <v>1616</v>
       </c>
-      <c r="F167" s="28" t="s">
+      <c r="F167" t="s">
         <v>1972</v>
       </c>
-      <c r="G167" s="40">
+      <c r="G167">
         <v>128</v>
       </c>
-      <c r="H167" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="I167" s="40">
+      <c r="H167" t="s">
+        <v>91</v>
+      </c>
+      <c r="I167">
         <v>8</v>
       </c>
-      <c r="J167" s="40" t="s">
+      <c r="J167" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="168" spans="1:10">
-      <c r="A168" s="38" t="s">
+      <c r="A168" s="22" t="s">
         <v>1950</v>
       </c>
-      <c r="B168" s="27">
+      <c r="B168">
         <v>473</v>
       </c>
-      <c r="C168" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D168" s="28">
+      <c r="C168" t="s">
+        <v>91</v>
+      </c>
+      <c r="D168">
         <v>400</v>
       </c>
-      <c r="E168" s="40" t="s">
+      <c r="E168" t="s">
         <v>1616</v>
       </c>
-      <c r="F168" s="28" t="s">
+      <c r="F168" t="s">
         <v>1972</v>
       </c>
-      <c r="G168" s="40">
+      <c r="G168">
         <v>128</v>
       </c>
-      <c r="H168" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="I168" s="40">
+      <c r="H168" t="s">
+        <v>91</v>
+      </c>
+      <c r="I168">
         <v>8</v>
       </c>
-      <c r="J168" s="40" t="s">
+      <c r="J168" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="169" spans="1:10">
-      <c r="A169" s="38" t="s">
+      <c r="A169" s="22" t="s">
         <v>1726</v>
       </c>
-      <c r="B169" s="27">
+      <c r="B169">
         <v>599</v>
       </c>
-      <c r="C169" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D169" s="28" t="s">
+      <c r="C169" t="s">
+        <v>91</v>
+      </c>
+      <c r="D169" t="s">
         <v>1835</v>
       </c>
-      <c r="E169" s="40" t="s">
+      <c r="E169" t="s">
         <v>1617</v>
       </c>
-      <c r="F169" s="28" t="s">
+      <c r="F169" t="s">
         <v>1270</v>
       </c>
-      <c r="G169" s="40">
+      <c r="G169">
         <v>2</v>
       </c>
-      <c r="H169" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="I169" s="40">
-        <v>1</v>
-      </c>
-      <c r="J169" s="40" t="s">
+      <c r="H169" t="s">
+        <v>76</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="170" spans="1:10">
-      <c r="A170" s="38" t="s">
+      <c r="A170" s="22" t="s">
         <v>1951</v>
       </c>
-      <c r="B170" s="27">
+      <c r="B170">
         <v>612</v>
       </c>
-      <c r="C170" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D170" s="28">
+      <c r="C170" t="s">
+        <v>91</v>
+      </c>
+      <c r="D170">
         <v>450</v>
       </c>
-      <c r="E170" s="40" t="s">
+      <c r="E170" t="s">
         <v>1616</v>
       </c>
-      <c r="F170" s="40" t="s">
+      <c r="F170" t="s">
         <v>1972</v>
       </c>
-      <c r="G170" s="40">
+      <c r="G170">
         <v>128</v>
       </c>
-      <c r="H170" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="I170" s="40">
+      <c r="H170" t="s">
+        <v>91</v>
+      </c>
+      <c r="I170">
         <v>32</v>
       </c>
-      <c r="J170" s="40" t="s">
+      <c r="J170" t="s">
         <v>91</v>
       </c>
     </row>
@@ -31769,11 +31754,56 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11BA47-00A9-48DA-8620-9FCD31CD7297}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2066</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>2071</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Destalle de Juegos.xlsx
+++ b/Destalle de Juegos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\march\Documents\GitHub\Juegos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\march\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDAF3BB-E467-4BE2-BF1F-1795EC2E843F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB00A47-D58C-400E-8D13-D79870947BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="930" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="4695" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PSX" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5415" uniqueCount="2073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5422" uniqueCount="2079">
   <si>
     <t>ID</t>
   </si>
@@ -6268,6 +6268,24 @@
   </si>
   <si>
     <t>Ports</t>
+  </si>
+  <si>
+    <t>God of War Collection</t>
+  </si>
+  <si>
+    <t>Español, Ingles</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>PCSA00126</t>
+  </si>
+  <si>
+    <t>Formato</t>
+  </si>
+  <si>
+    <t>Carpeta</t>
   </si>
 </sst>
 </file>
@@ -16833,7 +16851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D227" sqref="D227"/>
     </sheetView>
   </sheetViews>
@@ -31755,15 +31773,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11BA47-00A9-48DA-8620-9FCD31CD7297}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -31776,13 +31797,12 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>2077</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2072</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>2066</v>
-      </c>
-      <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
         <v>2031</v>
       </c>
@@ -31792,9 +31812,33 @@
       <c r="J1" s="2" t="s">
         <v>2032</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2075</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Destalle de Juegos.xlsx
+++ b/Destalle de Juegos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\march\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\march\Documents\GitHub\Juegos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB00A47-D58C-400E-8D13-D79870947BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149A59E1-AA47-42E4-9305-5CB7E04B298C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="4695" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PSX" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PS2'!$A$1:$A$291</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'PS3'!$A$1:$I$155</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PSP!$J$1:$J$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">PSVita!$A$1:$I$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PSX!$A$1:$G$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5422" uniqueCount="2079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6002" uniqueCount="2200">
   <si>
     <t>ID</t>
   </si>
@@ -6267,25 +6268,388 @@
     <t>v PATCH</t>
   </si>
   <si>
-    <t>Ports</t>
-  </si>
-  <si>
     <t>God of War Collection</t>
   </si>
   <si>
-    <t>Español, Ingles</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>PCSA00126</t>
   </si>
   <si>
     <t>Formato</t>
   </si>
   <si>
-    <t>Carpeta</t>
+    <t>Disco</t>
+  </si>
+  <si>
+    <t>vpk</t>
+  </si>
+  <si>
+    <t>PCSA00029</t>
+  </si>
+  <si>
+    <t>PCSB00713</t>
+  </si>
+  <si>
+    <t>PCSB00898</t>
+  </si>
+  <si>
+    <t>PCSE00011</t>
+  </si>
+  <si>
+    <t>PCSE00020</t>
+  </si>
+  <si>
+    <t>PCSE00023</t>
+  </si>
+  <si>
+    <t>PCSE00049</t>
+  </si>
+  <si>
+    <t>PCSE00050</t>
+  </si>
+  <si>
+    <t>PCSE00089</t>
+  </si>
+  <si>
+    <t>PCSE00277</t>
+  </si>
+  <si>
+    <t>PCSE00283</t>
+  </si>
+  <si>
+    <t>PCSE00293</t>
+  </si>
+  <si>
+    <t>PCSE00317</t>
+  </si>
+  <si>
+    <t>PCSE00399</t>
+  </si>
+  <si>
+    <t>PCSE00483</t>
+  </si>
+  <si>
+    <t>PCSE00491</t>
+  </si>
+  <si>
+    <t>PCSE00608</t>
+  </si>
+  <si>
+    <t>PCSE00656</t>
+  </si>
+  <si>
+    <t>PCSE00672</t>
+  </si>
+  <si>
+    <t>PCSE00740</t>
+  </si>
+  <si>
+    <t>PCSE00792</t>
+  </si>
+  <si>
+    <t>PCSE01035</t>
+  </si>
+  <si>
+    <t>PCSF00105</t>
+  </si>
+  <si>
+    <t>PCSG00355</t>
+  </si>
+  <si>
+    <t>PCSH10099</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>Uncharted El Abismo Dorado</t>
+  </si>
+  <si>
+    <t>J-STARS Victory VS+</t>
+  </si>
+  <si>
+    <t>Attack on Titan: Wings of Freedom</t>
+  </si>
+  <si>
+    <t>Silent Hill Book of Memories</t>
+  </si>
+  <si>
+    <t>Colección Metal Gear Solid HD</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>CastleStorm</t>
+  </si>
+  <si>
+    <t>Zen Pinball 2</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>Danganronpa 2: Goodbye Despair</t>
+  </si>
+  <si>
+    <t>Minecraft</t>
+  </si>
+  <si>
+    <t>XCOM®: Enemy Unknown Plus</t>
+  </si>
+  <si>
+    <t>Civilization Revolution 2</t>
+  </si>
+  <si>
+    <t>Sword Art Online Lost Song</t>
+  </si>
+  <si>
+    <t>DARIUSBURST Chronicle Saviours</t>
+  </si>
+  <si>
+    <t>Farming Simulator 18</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>IA V/T Colorful</t>
+  </si>
+  <si>
+    <t>Bullet Girls Phantasia</t>
+  </si>
+  <si>
+    <t>NoNpDrm</t>
+  </si>
+  <si>
+    <t>Final Fantasy X-2 HD</t>
+  </si>
+  <si>
+    <t>Final Fantasy X HD</t>
+  </si>
+  <si>
+    <t>Backstab</t>
+  </si>
+  <si>
+    <t>Beat Hazard 2</t>
+  </si>
+  <si>
+    <t>Call of Duty Black Ops - Declassified</t>
+  </si>
+  <si>
+    <t>ports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oficial </t>
+  </si>
+  <si>
+    <t>PCSE00097</t>
+  </si>
+  <si>
+    <t>Call of Vita: Hackzone</t>
+  </si>
+  <si>
+    <t>Chameleon RUN</t>
+  </si>
+  <si>
+    <t>CUPHEAD</t>
+  </si>
+  <si>
+    <t>Doom 3</t>
+  </si>
+  <si>
+    <t>Drone Sim Vita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunidad </t>
+  </si>
+  <si>
+    <t>Duck Hunt Remake</t>
+  </si>
+  <si>
+    <t>Fahrenheit</t>
+  </si>
+  <si>
+    <t>Fallout</t>
+  </si>
+  <si>
+    <t>Hollow Knight</t>
+  </si>
+  <si>
+    <t>homm3hd-vita</t>
+  </si>
+  <si>
+    <t>Left 4 Dead 2D</t>
+  </si>
+  <si>
+    <t>Mass Effect Infiltrator</t>
+  </si>
+  <si>
+    <t>Monument Valley</t>
+  </si>
+  <si>
+    <t>Shadow Gun</t>
+  </si>
+  <si>
+    <t>Slither.io</t>
+  </si>
+  <si>
+    <t>Sonic 3 A.I.R</t>
+  </si>
+  <si>
+    <t>SONIC SMS 3 Timelines</t>
+  </si>
+  <si>
+    <t>Subway Surfers</t>
+  </si>
+  <si>
+    <t>Super Mario UNIMaker</t>
+  </si>
+  <si>
+    <t>Techmaniac THPG</t>
+  </si>
+  <si>
+    <t>Temple Run</t>
+  </si>
+  <si>
+    <t>The Conduit</t>
+  </si>
+  <si>
+    <t>The Four of Us Are Dying</t>
+  </si>
+  <si>
+    <t>The Silent Age!</t>
+  </si>
+  <si>
+    <t>Tricky Towers Endless Race</t>
+  </si>
+  <si>
+    <t>VitaHot</t>
+  </si>
+  <si>
+    <t>Zombie Drive</t>
+  </si>
+  <si>
+    <t>Warcraft 2 (Buscar el 1 + exp)</t>
+  </si>
+  <si>
+    <t>https://www.rinnegatamante.eu/vitadb/#/</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>PCSB00343</t>
+  </si>
+  <si>
+    <t>PCSB00174</t>
+  </si>
+  <si>
+    <t>PCSB00055</t>
+  </si>
+  <si>
+    <t>Tipo Juego</t>
+  </si>
+  <si>
+    <t>CPHD23233</t>
+  </si>
+  <si>
+    <t>0,9,1</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>Professor Layton Curious Village HD</t>
+  </si>
+  <si>
+    <t>Professor Layton Lost Future HD</t>
+  </si>
+  <si>
+    <t>Professor Layton Pandora's Box HD</t>
+  </si>
+  <si>
+    <t>1,0,1</t>
+  </si>
+  <si>
+    <t>Neverball</t>
+  </si>
+  <si>
+    <t>Super Mario uMario</t>
+  </si>
+  <si>
+    <t>The Simpsons Hit &amp; Run</t>
+  </si>
+  <si>
+    <t>Super Mario 64</t>
+  </si>
+  <si>
+    <t>FryingMaster</t>
+  </si>
+  <si>
+    <t>Sonic Mania</t>
+  </si>
+  <si>
+    <t>vitaXash3D</t>
+  </si>
+  <si>
+    <t>Dead Space</t>
+  </si>
+  <si>
+    <t>fast areas NEON</t>
+  </si>
+  <si>
+    <t>Italian Plumber Adventures</t>
+  </si>
+  <si>
+    <t>MOD Super Kirby 64</t>
+  </si>
+  <si>
+    <t>MOD Super Waluigi 64</t>
+  </si>
+  <si>
+    <t>MODSuper Wario 64</t>
+  </si>
+  <si>
+    <t>Super Monkey BALL 2</t>
+  </si>
+  <si>
+    <t>Zelda3 Vita</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda: Ocarina of Time</t>
+  </si>
+  <si>
+    <t>PKG </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>El dritch</t>
+  </si>
+  <si>
+    <t>Rockstar Bully</t>
+  </si>
+  <si>
+    <t>Rockstar GTA 3</t>
+  </si>
+  <si>
+    <t>Rockstar GTA Chinatown Wars</t>
+  </si>
+  <si>
+    <t>Rockstar GTA San Andreas</t>
+  </si>
+  <si>
+    <t>Rockstar GTA Vice City</t>
+  </si>
+  <si>
+    <t>Rockstar Max Payne</t>
   </si>
 </sst>
 </file>
@@ -6465,7 +6829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -6502,6 +6866,12 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -16851,7 +17221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A226" workbookViewId="0">
       <selection activeCell="D227" sqref="D227"/>
     </sheetView>
   </sheetViews>
@@ -26488,7 +26858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L170"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
@@ -26514,10 +26884,10 @@
         <v>82</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="34"/>
       <c r="F1" t="s">
         <v>169</v>
       </c>
@@ -31773,18 +32143,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11BA47-00A9-48DA-8620-9FCD31CD7297}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B87" sqref="B32:B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="30"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -31795,48 +32167,2469 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="31" t="s">
+        <v>2031</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2032</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2074</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2167</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>2077</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>2072</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2031</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>2071</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2032</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>2076</v>
-      </c>
       <c r="B2" t="s">
-        <v>2073</v>
+        <v>2105</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>2074</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2">
+        <v>3.2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="30">
+        <v>1.03</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>3.3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="30">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2192</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>2130</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
         <v>2078</v>
       </c>
-      <c r="G2" t="s">
-        <v>2075</v>
+      <c r="B4" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D4">
+        <v>2.1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="30">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2192</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>2138</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D5">
+        <v>3.1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="30">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>1.9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="30">
+        <v>1.01</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>3.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="30">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>3.2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="30">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>341</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="30">
+        <v>1.01</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>3.7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="30">
+        <v>1.25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B11" t="s">
+        <v>518</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="30">
+        <v>1.01</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>1.4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="30">
+        <v>1.02</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>3.5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="30">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>3.5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="30">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="30">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>1.6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="30">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D17">
+        <v>2.9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="30">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="30">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D19">
+        <v>3.1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="30">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D20">
+        <v>3.1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="30">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>1.4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="30">
+        <v>1.84</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="30">
+        <v>1.04</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="30">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>471</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="30">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>3.2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="30">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>1.2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="30">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J26" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>199</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="30">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D28">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="30">
+        <v>1.01</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J28" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D29">
+        <v>3.9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="30">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J29" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D30">
+        <v>1.7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="30">
+        <v>1.01</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I30" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J30" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>2.7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="30">
+        <v>1.02</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H31" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I31" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J31" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D32">
+        <v>958</v>
+      </c>
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="30">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J32" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="B33" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D33">
+        <v>74</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="30">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J33" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="B34" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D34">
+        <v>203</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H34" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>2138</v>
+      </c>
+      <c r="J34" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="30">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J35" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="30">
+        <v>1.65</v>
+      </c>
+      <c r="H36" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J36" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="B37" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D37">
+        <v>493</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J37" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D38">
+        <v>49</v>
+      </c>
+      <c r="E38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="30">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>2138</v>
+      </c>
+      <c r="J38" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D39">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="30">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I39" s="32" t="s">
+        <v>2138</v>
+      </c>
+      <c r="J39" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D40">
+        <v>40</v>
+      </c>
+      <c r="E40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J40" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D41">
+        <v>3.5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>2169</v>
+      </c>
+      <c r="H41" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J41" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D42">
+        <v>1.4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>2170</v>
+      </c>
+      <c r="H42" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I42" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J42" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D43">
+        <v>2.9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="30">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J43" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D44">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="30">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I44" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J44" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="B45" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D45">
+        <v>930</v>
+      </c>
+      <c r="E45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="30">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I45" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J45" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="B46" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D46">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="30">
+        <v>2.1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J46" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D47">
+        <v>1.5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="30">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J47" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="B48" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D48">
+        <v>622</v>
+      </c>
+      <c r="E48" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="30">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I48" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J48" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D49">
+        <v>1.5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H49" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I49" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J49" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D50">
+        <v>3.3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="30">
+        <v>1.03</v>
+      </c>
+      <c r="H50" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I50" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J50" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D51">
+        <v>40</v>
+      </c>
+      <c r="E51" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="30">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I51" s="32" t="s">
+        <v>2138</v>
+      </c>
+      <c r="J51" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D52">
+        <v>516</v>
+      </c>
+      <c r="E52" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="30">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J52" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D53">
+        <v>180</v>
+      </c>
+      <c r="E53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H53" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J53" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D54">
+        <v>141</v>
+      </c>
+      <c r="E54" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="30">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I54" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J54" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D55">
+        <v>579</v>
+      </c>
+      <c r="E55" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" s="30">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J55" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D56">
+        <v>1.4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="30">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I56" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J56" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" s="30">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I57" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J57" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D58">
+        <v>324</v>
+      </c>
+      <c r="E58" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="30">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I58" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J58" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D59">
+        <v>40</v>
+      </c>
+      <c r="E59" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" s="30">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I59" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J59" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D60">
+        <v>145</v>
+      </c>
+      <c r="E60" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="30">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I60" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J60" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D61">
+        <v>27</v>
+      </c>
+      <c r="E61" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" s="30">
+        <v>3.2</v>
+      </c>
+      <c r="H61" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I61" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J61" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D62">
+        <v>42</v>
+      </c>
+      <c r="E62" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" s="30">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I62" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J62" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D63">
+        <v>25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" s="30">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I63" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J63" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D64">
+        <v>294</v>
+      </c>
+      <c r="E64" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" s="30">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I64" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J64" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D65">
+        <v>370</v>
+      </c>
+      <c r="E65" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="30">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I65" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J65" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D66">
+        <v>32</v>
+      </c>
+      <c r="E66" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" s="30">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I66" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J66" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D67">
+        <v>46</v>
+      </c>
+      <c r="E67" t="s">
+        <v>91</v>
+      </c>
+      <c r="F67" s="30">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I67" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J67" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D68">
+        <v>891</v>
+      </c>
+      <c r="E68" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" s="30">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I68" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J68" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D69">
+        <v>89</v>
+      </c>
+      <c r="E69" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" s="30">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I69" s="32" t="s">
+        <v>2138</v>
+      </c>
+      <c r="J69" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D70">
+        <v>265</v>
+      </c>
+      <c r="E70" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70" s="30">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I70" s="32" t="s">
+        <v>2138</v>
+      </c>
+      <c r="J70" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D71">
+        <v>1.9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>76</v>
+      </c>
+      <c r="F71" s="30">
+        <v>0.61</v>
+      </c>
+      <c r="H71" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I71" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J71" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D72">
+        <v>54</v>
+      </c>
+      <c r="E72" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="H72" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I72" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J72" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D73">
+        <v>210</v>
+      </c>
+      <c r="E73" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="30">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I73" s="32" t="s">
+        <v>2138</v>
+      </c>
+      <c r="J73" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D74">
+        <v>89</v>
+      </c>
+      <c r="E74" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="30">
+        <v>3.13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I74" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J74" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D75">
+        <v>43</v>
+      </c>
+      <c r="E75" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" s="30">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I75" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J75" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D76">
+        <v>319</v>
+      </c>
+      <c r="E76" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="30">
+        <v>1.3</v>
+      </c>
+      <c r="H76" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I76" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J76" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D77">
+        <v>36</v>
+      </c>
+      <c r="E77" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="30">
+        <v>1.01</v>
+      </c>
+      <c r="H77" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I77" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J77" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D78">
+        <v>38</v>
+      </c>
+      <c r="E78" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="30">
+        <v>2.1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I78" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J78" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D79">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="30">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I79" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J79" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D80">
+        <v>212</v>
+      </c>
+      <c r="E80" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H80" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I80" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J80" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="30">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I81" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J81" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D82">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="30">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I82" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J82" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D83">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="30">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I83" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J83" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D84">
+        <v>7</v>
+      </c>
+      <c r="E84" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" s="30">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I84" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J84" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D85">
+        <v>101</v>
+      </c>
+      <c r="E85" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="30">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I85" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J85" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D86">
+        <v>3.4</v>
+      </c>
+      <c r="E86" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" s="30">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I86" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J86" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D87">
+        <v>130</v>
+      </c>
+      <c r="E87" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="30">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I87" s="32" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J87" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>2162</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I31" xr:uid="{1D11BA47-00A9-48DA-8620-9FCD31CD7297}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
